--- a/WppSender/telefones.xlsx
+++ b/WppSender/telefones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINÍCIUS\Documents\GitHub\MeusProjetos\Wpp-Sender\WppSender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F01FDF-217C-487F-9FBE-FE3DB91AB363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1A156F-7388-4693-BF99-7A0A63E7A541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,7 +885,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>5521987471804</v>
+        <v>5521987471901</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>5521987471804</v>
+        <v>5521987471901</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -923,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>5521987471804</v>
+        <v>5521987471901</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -931,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>5521987471804</v>
+        <v>5521987471901</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -939,7 +939,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>5521987471804</v>
+        <v>5521987471901</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -947,7 +947,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5521987471804</v>
+        <v>5521987471901</v>
       </c>
     </row>
   </sheetData>

--- a/WppSender/telefones.xlsx
+++ b/WppSender/telefones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINÍCIUS\Documents\GitHub\MeusProjetos\Wpp-Sender\WppSender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1A156F-7388-4693-BF99-7A0A63E7A541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617582D1-46C8-4AC7-926D-707CCB036018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>nome_proprietario</t>
   </si>
@@ -28,19 +28,58 @@
     <t>WppSender</t>
   </si>
   <si>
-    <t>Vinicius</t>
-  </si>
-  <si>
-    <t>guilherme</t>
-  </si>
-  <si>
-    <t>maria</t>
-  </si>
-  <si>
-    <t>ester</t>
-  </si>
-  <si>
-    <t>tiA</t>
+    <t>Ana Carolina</t>
+  </si>
+  <si>
+    <t>Anna Lena</t>
+  </si>
+  <si>
+    <t>Jhonatan</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Caeh</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Juliana</t>
+  </si>
+  <si>
+    <t>Larissa</t>
+  </si>
+  <si>
+    <t>5532984884745</t>
+  </si>
+  <si>
+    <t>5532988191429</t>
+  </si>
+  <si>
+    <t>5532988923958</t>
+  </si>
+  <si>
+    <t>5532984427134</t>
+  </si>
+  <si>
+    <t>5532988213508</t>
+  </si>
+  <si>
+    <t>5532991418096</t>
+  </si>
+  <si>
+    <t>5532984700198</t>
+  </si>
+  <si>
+    <t>5532988858637</t>
+  </si>
+  <si>
+    <t>5532999798051</t>
   </si>
 </sst>
 </file>
@@ -882,16 +921,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -906,48 +946,72 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>5521987471901</v>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>5521987471901</v>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>5521987471901</v>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5521987471901</v>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5521987471901</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5521987471901</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/WppSender/telefones.xlsx
+++ b/WppSender/telefones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINÍCIUS\Documents\GitHub\MeusProjetos\Wpp-Sender\WppSender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617582D1-46C8-4AC7-926D-707CCB036018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F6D8C7-6113-494B-91A2-900FFE63808F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>nome_proprietario</t>
   </si>
@@ -53,33 +53,6 @@
   </si>
   <si>
     <t>Larissa</t>
-  </si>
-  <si>
-    <t>5532984884745</t>
-  </si>
-  <si>
-    <t>5532988191429</t>
-  </si>
-  <si>
-    <t>5532988923958</t>
-  </si>
-  <si>
-    <t>5532984427134</t>
-  </si>
-  <si>
-    <t>5532988213508</t>
-  </si>
-  <si>
-    <t>5532991418096</t>
-  </si>
-  <si>
-    <t>5532984700198</t>
-  </si>
-  <si>
-    <t>5532988858637</t>
-  </si>
-  <si>
-    <t>5532999798051</t>
   </si>
 </sst>
 </file>
@@ -924,7 +897,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -946,72 +919,72 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
+      <c r="B2" s="1">
+        <v>5521987471804</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="B3" s="1">
+        <v>5521987471804</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4" s="1">
+        <v>5521987471804</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
+      <c r="B5" s="1">
+        <v>5521987471804</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
+      <c r="B6" s="1">
+        <v>5521987471804</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
+      <c r="B7" s="1">
+        <v>5521987471804</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
+      <c r="B8" s="1">
+        <v>5521987471804</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
+      <c r="B9" s="1">
+        <v>5521987471804</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
+      <c r="B10" s="1">
+        <v>5521987471804</v>
       </c>
     </row>
   </sheetData>

--- a/WppSender/telefones.xlsx
+++ b/WppSender/telefones.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINÍCIUS\Documents\GitHub\MeusProjetos\Wpp-Sender\WppSender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F6D8C7-6113-494B-91A2-900FFE63808F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027A8CE8-9219-4A03-AFD4-9DA5C5497A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheets1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>nome_proprietario</t>
   </si>
@@ -28,38 +28,221 @@
     <t>WppSender</t>
   </si>
   <si>
-    <t>Ana Carolina</t>
-  </si>
-  <si>
-    <t>Anna Lena</t>
-  </si>
-  <si>
-    <t>Jhonatan</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Brenda</t>
-  </si>
-  <si>
-    <t>Caeh</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Juliana</t>
-  </si>
-  <si>
-    <t>Larissa</t>
+    <t>Julio César Teixeira de Araújo</t>
+  </si>
+  <si>
+    <t>Ryan Pinto Alvim</t>
+  </si>
+  <si>
+    <t>Pedro Henrique de Freitas Amorim</t>
+  </si>
+  <si>
+    <t>Helena Castro Nogueira Vicini</t>
+  </si>
+  <si>
+    <t>Camila Castro Nogueira Vicini</t>
+  </si>
+  <si>
+    <t>Laura Conforte da Costa Almeida.</t>
+  </si>
+  <si>
+    <t>Marjory w.sena</t>
+  </si>
+  <si>
+    <t>Lucas Galvão Salgado Figueiredo</t>
+  </si>
+  <si>
+    <t>Emanuele Brion Cardoso Reis da Silva</t>
+  </si>
+  <si>
+    <t>Gabriela Brion Cardoso Reis da Siva</t>
+  </si>
+  <si>
+    <t>Ana Luisa Rodrigues Leocadio</t>
+  </si>
+  <si>
+    <t>Kaik Henrique Vianelli Pedretti</t>
+  </si>
+  <si>
+    <t>Luisa Almeida Machado Paes</t>
+  </si>
+  <si>
+    <t>Arthur de Souza Moreira</t>
+  </si>
+  <si>
+    <t>Bruno de Oliveira Menezes</t>
+  </si>
+  <si>
+    <t>Anna Carolina Quitz Costa</t>
+  </si>
+  <si>
+    <t>Rodrigo Silva Marques</t>
+  </si>
+  <si>
+    <t>Maria Clara Santos</t>
+  </si>
+  <si>
+    <t>Kamilly Olinda</t>
+  </si>
+  <si>
+    <t>Julia Jaques Hugo de Souza</t>
+  </si>
+  <si>
+    <t>Eduarda Pinheiro Silva</t>
+  </si>
+  <si>
+    <t>Sophia Souza Meirelee</t>
+  </si>
+  <si>
+    <t>Fernanda Jabour Lott Carvalho Silva</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Santos Crepaldi</t>
+  </si>
+  <si>
+    <t>Maria Luisa Guilherme Lucioli</t>
+  </si>
+  <si>
+    <t>GUSTAVO RATTS D'ÁVILA</t>
+  </si>
+  <si>
+    <t>Richard Nicolas Barbosa Garcia</t>
+  </si>
+  <si>
+    <t>Davi de Oliveira Mendes</t>
+  </si>
+  <si>
+    <t>Gabriel Valente de Souza</t>
+  </si>
+  <si>
+    <t>Julia R F J Villela</t>
+  </si>
+  <si>
+    <t>Elisa de Castro Santos</t>
+  </si>
+  <si>
+    <t>Alice Urbano Carvalho Lopes</t>
+  </si>
+  <si>
+    <t>Pedro Moraes Carvalho</t>
+  </si>
+  <si>
+    <t>Luísa Bassi Vieira</t>
+  </si>
+  <si>
+    <t>julia jaques h. de souza</t>
+  </si>
+  <si>
+    <t>João Pedro Belligoli Pinto</t>
+  </si>
+  <si>
+    <t>Matheus César</t>
+  </si>
+  <si>
+    <t>Maria Clara Julio d'Almeida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOPHIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTHUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMILA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMILLY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUISA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUÍSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RYAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOÃO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELENA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAURA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARJORY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMANUELE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAIK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUSTAVO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICHARD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELISA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALICE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATHEUS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +377,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -376,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -491,6 +686,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -536,9 +746,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -893,102 +1105,456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8E15D-2818-45AE-B9A2-03F5D036FADB}">
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5531985878756</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5532988408818</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5532988408818</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5532999225567</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5595981254106</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5535999052503</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5561999817774</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5561999817784</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5532988308089</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5532999853927</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5532988966697</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5532999874832</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5522997778242</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>5521987471804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5521987471804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5521987471804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5521987471804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5521987471804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5521987471804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5521987471804</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5521987471804</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5521987471804</v>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5532984536039</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5535988233525</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5532988213378</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5521993141322</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5532988775676</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5532999862954</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5532988914453</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5532988798494</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5522988035978</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5531999052868</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5532991086857</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5532998172254</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5537991161582</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5535999386830</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5532984902395</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5524999927002</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5532999891787</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5532988446107</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5532999649788</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5524999765609</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5532988081347</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5532988081347</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5532988458360</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5532988922361</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5532988716181</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5532987083278</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WppSender/telefones.xlsx
+++ b/WppSender/telefones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINÍCIUS\Documents\GitHub\MeusProjetos\Wpp-Sender\WppSender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027A8CE8-9219-4A03-AFD4-9DA5C5497A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50B424F-8BE2-462C-B982-47E1DF0D9B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,229 +20,241 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
-  <si>
-    <t>nome_proprietario</t>
-  </si>
-  <si>
-    <t>WppSender</t>
-  </si>
-  <si>
-    <t>Julio César Teixeira de Araújo</t>
-  </si>
-  <si>
-    <t>Ryan Pinto Alvim</t>
-  </si>
-  <si>
-    <t>Pedro Henrique de Freitas Amorim</t>
-  </si>
-  <si>
-    <t>Helena Castro Nogueira Vicini</t>
-  </si>
-  <si>
-    <t>Camila Castro Nogueira Vicini</t>
-  </si>
-  <si>
-    <t>Laura Conforte da Costa Almeida.</t>
-  </si>
-  <si>
-    <t>Marjory w.sena</t>
-  </si>
-  <si>
-    <t>Lucas Galvão Salgado Figueiredo</t>
-  </si>
-  <si>
-    <t>Emanuele Brion Cardoso Reis da Silva</t>
-  </si>
-  <si>
-    <t>Gabriela Brion Cardoso Reis da Siva</t>
-  </si>
-  <si>
-    <t>Ana Luisa Rodrigues Leocadio</t>
-  </si>
-  <si>
-    <t>Kaik Henrique Vianelli Pedretti</t>
-  </si>
-  <si>
-    <t>Luisa Almeida Machado Paes</t>
-  </si>
-  <si>
-    <t>Arthur de Souza Moreira</t>
-  </si>
-  <si>
-    <t>Bruno de Oliveira Menezes</t>
-  </si>
-  <si>
-    <t>Anna Carolina Quitz Costa</t>
-  </si>
-  <si>
-    <t>Rodrigo Silva Marques</t>
-  </si>
-  <si>
-    <t>Maria Clara Santos</t>
-  </si>
-  <si>
-    <t>Kamilly Olinda</t>
-  </si>
-  <si>
-    <t>Julia Jaques Hugo de Souza</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>Eduarda Pinheiro Silva</t>
   </si>
   <si>
-    <t>Sophia Souza Meirelee</t>
-  </si>
-  <si>
     <t>Fernanda Jabour Lott Carvalho Silva</t>
   </si>
   <si>
-    <t>Maria Fernanda Santos Crepaldi</t>
-  </si>
-  <si>
-    <t>Maria Luisa Guilherme Lucioli</t>
-  </si>
-  <si>
-    <t>GUSTAVO RATTS D'ÁVILA</t>
-  </si>
-  <si>
-    <t>Richard Nicolas Barbosa Garcia</t>
-  </si>
-  <si>
-    <t>Davi de Oliveira Mendes</t>
-  </si>
-  <si>
     <t>Gabriel Valente de Souza</t>
   </si>
   <si>
-    <t>Julia R F J Villela</t>
-  </si>
-  <si>
-    <t>Elisa de Castro Santos</t>
-  </si>
-  <si>
-    <t>Alice Urbano Carvalho Lopes</t>
-  </si>
-  <si>
-    <t>Pedro Moraes Carvalho</t>
-  </si>
-  <si>
-    <t>Luísa Bassi Vieira</t>
-  </si>
-  <si>
-    <t>julia jaques h. de souza</t>
-  </si>
-  <si>
-    <t>João Pedro Belligoli Pinto</t>
-  </si>
-  <si>
-    <t>Matheus César</t>
-  </si>
-  <si>
-    <t>Maria Clara Julio d'Almeida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOPHIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTHUR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRUNO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULIO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMILA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAMILLY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUISA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUÍSA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RYAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOÃO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HELENA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAURA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARJORY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMANUELE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIELA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAIK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUARDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNANDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUSTAVO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICHARD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELISA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALICE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATHEUS </t>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Nome do aluno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Emanuel Da Silva </t>
+  </si>
+  <si>
+    <t>Thaís de França hansen duarte</t>
+  </si>
+  <si>
+    <t>Marianna Cardoso Mayrink Lima Barizon</t>
+  </si>
+  <si>
+    <t>RAFAEL DE JESUS CAETANO</t>
+  </si>
+  <si>
+    <t>Julia Torres Teixeira</t>
+  </si>
+  <si>
+    <t>Luis Gustavo</t>
+  </si>
+  <si>
+    <t>Lucas de Salles Almeida Moura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Freitas Gomes de Assunção </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanna Marian Rodrigues de Oliveira </t>
+  </si>
+  <si>
+    <t>Isadora lopes dr campos paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen Albuquerque Pereira </t>
+  </si>
+  <si>
+    <t>Renan Menezes Carvalho</t>
+  </si>
+  <si>
+    <t>Isadora Lopes de Campos Paulo</t>
+  </si>
+  <si>
+    <t>Rafael Santos Titonelli</t>
+  </si>
+  <si>
+    <t>Samara Vasconcellos Carteri</t>
+  </si>
+  <si>
+    <t>Lucas de Castro Rocha</t>
+  </si>
+  <si>
+    <t>Gibran Tanus Cury</t>
+  </si>
+  <si>
+    <t>João Lucas Santos de Almeida da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mell feital Rocha </t>
+  </si>
+  <si>
+    <t>Yan Magalhães de Melo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otávio Greanin Soares Brunhara </t>
+  </si>
+  <si>
+    <t>pedro paulo fernandes abreu</t>
+  </si>
+  <si>
+    <t>Anna Júlia Bauch da Silva</t>
+  </si>
+  <si>
+    <t>Gabriel Hungaro Ribeiro Pigozzo</t>
+  </si>
+  <si>
+    <t>Iago pato da costa</t>
+  </si>
+  <si>
+    <t>Eduardo Santos Maia</t>
+  </si>
+  <si>
+    <t>Diego Pereira Leoncio</t>
+  </si>
+  <si>
+    <t>Álvaro Sampaio Louro</t>
+  </si>
+  <si>
+    <t>Maria Clara Freitas de Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrique Rodrigues de Oliveira </t>
+  </si>
+  <si>
+    <t>kaue henrique do nascimento ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Klara Costa Lemos </t>
+  </si>
+  <si>
+    <t>Maria Fernanda de Andrade Tarôco</t>
+  </si>
+  <si>
+    <t>Sislange fatima da silva rosa</t>
+  </si>
+  <si>
+    <t>Rafael Brion de Jorge</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO OLIVEIRA HONORI</t>
+  </si>
+  <si>
+    <t>Gustavo Fregulia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno Arruda de Souza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thaís </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marianna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isadora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">João </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otávio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduarda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álvaro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sislange </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICTOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,18 +389,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -571,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -686,21 +686,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -746,11 +731,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1106,452 +1089,553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8E15D-2818-45AE-B9A2-03F5D036FADB}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5535999513221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5532988339656</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5532991173566</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5532991786980</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5532999865221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5522998882456</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5532988873893</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5579991916816</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5579991916696</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5532988355472</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5532991588331</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5532998412009</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5532999631457</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5522988162400</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5532988548532</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5532988850933</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5532984138640</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5532988202986</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5532988649449</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5522999838000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5522999718000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5532985079595</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5532988360858</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5532988877018</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5535988239109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5521988604590</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5521986093756</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5535998542031</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5532988798494</v>
+      </c>
+      <c r="C30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5532988569823</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5531995471098</v>
+      </c>
+      <c r="C32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5531999052868</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5532988001570</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5524999927002</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5521979352571</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5532999100176</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5532991720687</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5532988080090</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5532988531190</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5532999727326</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5532988045278</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5535998040270</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5532988316754</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5532999065439</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5532984314655</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5532984344079</v>
+      </c>
+      <c r="C47" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3">
-        <v>5531985878756</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5532988408818</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5532988408818</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5532999225567</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5595981254106</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5532999194234</v>
+      </c>
+      <c r="C48" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="3">
-        <v>5535999052503</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5561999817774</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5561999817784</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5532988308089</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5532999853927</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5532988966697</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5532999874832</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5522997778242</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5532984536039</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5535988233525</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="3">
-        <v>5532988213378</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="3">
-        <v>5521993141322</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5532988775676</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5532999862954</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5532988914453</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5532988798494</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5522988035978</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5531999052868</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5532991086857</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5532998172254</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5537991161582</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5535999386830</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5532998134629</v>
+      </c>
+      <c r="C49" t="s">
         <v>42</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5532984902395</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5524999927002</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5532999891787</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5532988446107</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="3">
-        <v>5532999649788</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5524999765609</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="3">
-        <v>5532988081347</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="3">
-        <v>5532988081347</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="3">
-        <v>5532988458360</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="3">
-        <v>5532988922361</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="3">
-        <v>5532988716181</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="3">
-        <v>5532987083278</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/WppSender/telefones.xlsx
+++ b/WppSender/telefones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINÍCIUS\Documents\GitHub\MeusProjetos\Wpp-Sender\WppSender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50B424F-8BE2-462C-B982-47E1DF0D9B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B7B81-582D-434D-8E94-CC5EEDFDF7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
-  <si>
-    <t>Eduarda Pinheiro Silva</t>
-  </si>
-  <si>
-    <t>Fernanda Jabour Lott Carvalho Silva</t>
-  </si>
-  <si>
-    <t>Gabriel Valente de Souza</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
   <si>
     <t>Telefone</t>
   </si>
@@ -37,217 +28,430 @@
     <t>Nome do aluno</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucas Emanuel Da Silva </t>
-  </si>
-  <si>
-    <t>Thaís de França hansen duarte</t>
-  </si>
-  <si>
-    <t>Marianna Cardoso Mayrink Lima Barizon</t>
-  </si>
-  <si>
-    <t>RAFAEL DE JESUS CAETANO</t>
-  </si>
-  <si>
-    <t>Julia Torres Teixeira</t>
-  </si>
-  <si>
-    <t>Luis Gustavo</t>
-  </si>
-  <si>
-    <t>Lucas de Salles Almeida Moura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo Freitas Gomes de Assunção </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giovanna Marian Rodrigues de Oliveira </t>
-  </si>
-  <si>
-    <t>Isadora lopes dr campos paulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen Albuquerque Pereira </t>
-  </si>
-  <si>
-    <t>Renan Menezes Carvalho</t>
-  </si>
-  <si>
-    <t>Isadora Lopes de Campos Paulo</t>
-  </si>
-  <si>
-    <t>Rafael Santos Titonelli</t>
-  </si>
-  <si>
-    <t>Samara Vasconcellos Carteri</t>
-  </si>
-  <si>
-    <t>Lucas de Castro Rocha</t>
-  </si>
-  <si>
-    <t>Gibran Tanus Cury</t>
-  </si>
-  <si>
-    <t>João Lucas Santos de Almeida da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mell feital Rocha </t>
-  </si>
-  <si>
-    <t>Yan Magalhães de Melo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otávio Greanin Soares Brunhara </t>
-  </si>
-  <si>
-    <t>pedro paulo fernandes abreu</t>
-  </si>
-  <si>
-    <t>Anna Júlia Bauch da Silva</t>
-  </si>
-  <si>
-    <t>Gabriel Hungaro Ribeiro Pigozzo</t>
-  </si>
-  <si>
-    <t>Iago pato da costa</t>
-  </si>
-  <si>
-    <t>Eduardo Santos Maia</t>
-  </si>
-  <si>
-    <t>Diego Pereira Leoncio</t>
-  </si>
-  <si>
-    <t>Álvaro Sampaio Louro</t>
-  </si>
-  <si>
-    <t>Maria Clara Freitas de Souza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henrique Rodrigues de Oliveira </t>
-  </si>
-  <si>
-    <t>kaue henrique do nascimento ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Klara Costa Lemos </t>
-  </si>
-  <si>
-    <t>Maria Fernanda de Andrade Tarôco</t>
-  </si>
-  <si>
-    <t>Sislange fatima da silva rosa</t>
-  </si>
-  <si>
-    <t>Rafael Brion de Jorge</t>
-  </si>
-  <si>
-    <t>VICTOR HUGO OLIVEIRA HONORI</t>
-  </si>
-  <si>
-    <t>Gustavo Fregulia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruno Arruda de Souza </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lucas </t>
   </si>
   <si>
-    <t xml:space="preserve">Thaís </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marianna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAFAEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gustavo </t>
   </si>
   <si>
-    <t xml:space="preserve">Giovanna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isadora </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafael </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibran </t>
-  </si>
-  <si>
-    <t xml:space="preserve">João </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mell </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otávio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pedro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduarda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernanda </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gabriel </t>
   </si>
   <si>
-    <t xml:space="preserve">Iago </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Álvaro </t>
-  </si>
-  <si>
     <t xml:space="preserve">Maria </t>
   </si>
   <si>
-    <t xml:space="preserve">Henrique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sislange </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VICTOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruno </t>
+    <t>Jacqueline Simone de Souza</t>
+  </si>
+  <si>
+    <t>Marcelo José de Oliveira</t>
+  </si>
+  <si>
+    <t>PRISCILA MARIA DE SOUZA</t>
+  </si>
+  <si>
+    <t>MITZUKI MICHELLE DA SILVA MARQUES</t>
+  </si>
+  <si>
+    <t>Sandrine Geraldi Santos Navarro</t>
+  </si>
+  <si>
+    <t>Salete Pereira da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Cecília Guimarães Mendes Ramos </t>
+  </si>
+  <si>
+    <t>Iza Cátia Monteiro Portela</t>
+  </si>
+  <si>
+    <t>Marco Aurélio Cloter Júnior</t>
+  </si>
+  <si>
+    <t>MAIRA ARAÚJO COSTA E FERREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozilene Maria  da Silva </t>
+  </si>
+  <si>
+    <t>Marcos V Rodrigues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meirismar Aparecida de Oliveira Bolotari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Cláudia Fazzion Barbosa </t>
+  </si>
+  <si>
+    <t>Luciana de Castro Soares</t>
+  </si>
+  <si>
+    <t>Jéssica Pereira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deise mendes dias Pereira </t>
+  </si>
+  <si>
+    <t>Jemima Bispo</t>
+  </si>
+  <si>
+    <t>Patricia Teixeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabiola Guimarães Daddalvio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrícia Pereira Oliveira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Érika Schueler de Aquino Marge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Rodolfo Moreira </t>
+  </si>
+  <si>
+    <t>Giane Fernandes</t>
+  </si>
+  <si>
+    <t>Alan Rodrigues de Freitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leandro </t>
+  </si>
+  <si>
+    <t>Davidson Rodrigues Marciano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Froes Leite </t>
+  </si>
+  <si>
+    <t>Sirleia L Comitre</t>
+  </si>
+  <si>
+    <t>Klelenaire Castro Nogueira da Silva Vicini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solange Soldati </t>
+  </si>
+  <si>
+    <t>Mayara Lopo Correa</t>
+  </si>
+  <si>
+    <t>Alessandra de Oliveira Bahia</t>
+  </si>
+  <si>
+    <t>Raissa Carvalho de Moraes</t>
+  </si>
+  <si>
+    <t>Sharon Antonelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanusa Cristiana De Almeida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walkyria Almeida Machado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace kelly xisto de Souza e Silva </t>
+  </si>
+  <si>
+    <t>Michelle Fernandes Stefani</t>
+  </si>
+  <si>
+    <t>Fabia Correa Casadio Azzi</t>
+  </si>
+  <si>
+    <t>Rafaela Andrade Meurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristiane Lima Aleixo Dutra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele Stherling </t>
+  </si>
+  <si>
+    <t>Rickc Chehuen</t>
+  </si>
+  <si>
+    <t>Gabriela Benita Winand</t>
+  </si>
+  <si>
+    <t>Tatiana Sabioni</t>
+  </si>
+  <si>
+    <t>Roberta de Jesus Meruzzi</t>
+  </si>
+  <si>
+    <t>Sabrina Monteiro Bassi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliana Vilela Mendes, Sander de Carvalho Mendes </t>
+  </si>
+  <si>
+    <t>Solange Alves da Silva</t>
+  </si>
+  <si>
+    <t>MARILZA DE CASTRO BAHIA PIRES</t>
+  </si>
+  <si>
+    <t>SILVANA DE FATIMA DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Márcia Cristina Duque </t>
+  </si>
+  <si>
+    <t>Joelma de Matos Rocha</t>
+  </si>
+  <si>
+    <t>MARIA APARECIDA DA SILVA ARAUJO</t>
+  </si>
+  <si>
+    <t>Manuelly Peroni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samantha De Castro Penchel </t>
+  </si>
+  <si>
+    <t>Izabel Cristina de Oliveira Amorim Ottoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Carvalho </t>
+  </si>
+  <si>
+    <t>Leisli Magalhães Boldrin</t>
+  </si>
+  <si>
+    <t>Amanda Costa Da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaqueline Almeida dos Santos Freitas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Heluey Carvalho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floriano Rocha Protta </t>
+  </si>
+  <si>
+    <t>Floriano Rocha Protta</t>
+  </si>
+  <si>
+    <t>Wanessa de Fátima Alonso Ribeiro</t>
+  </si>
+  <si>
+    <t>Flavia Cristina Brion Cardoso da Silva</t>
+  </si>
+  <si>
+    <t>Vera  Franco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Luiz dos Anjos Amorim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ronaldo ferreira </t>
+  </si>
+  <si>
+    <t>Patricia Medeiros Pinheiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Aparecida Rodrigues Lage </t>
+  </si>
+  <si>
+    <t>Gisele Duque Torres Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miriam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacqueline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISCILA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MITZUKI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandrine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozilene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meirismar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luciana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jéssica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jemima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabiola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrícia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Érika </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davidson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirleia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klelenaire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solange </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raissa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanusa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walkyria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michelle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafaela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristiane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rickc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabrina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARILZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Márcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joelma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuelly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samantha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izabel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leisli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaqueline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floriano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanessa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ronaldo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gisele </t>
   </si>
 </sst>
 </file>
@@ -731,9 +935,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1089,553 +1294,851 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8E15D-2818-45AE-B9A2-03F5D036FADB}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5522988035978</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5532988024007</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5532999193655</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5521993141322</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5532988044356</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5532984690178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5537991919192</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5532999941583</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5532998757851</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5532999922632</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5532998191728</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5521981241946</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5532998197358</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5535992218181</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5522999142789</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5532991469366</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5531988111064</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5532991078836</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5522997778242</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5532988579149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5532987033114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5532987254063</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5532984536039</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5532988579303</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5532999361508</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5532988576761</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5532988987041</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5522992390267</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5522981009717</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5532988408818</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5532988630386</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5532991311112</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5532984037232</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5532999580694</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5532988586322</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5532988118938</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5532999874832</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5532988358005</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5532987076191</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5532988676967</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5532999153316</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5532999088872</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5532988268040</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5532988750280</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5532988879995</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5532988734971</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5532999067600</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5532988743073</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5532988081347</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5532984258502</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5532988887587</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5532988112238</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5532991382273</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5532988792979</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5532999758521</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5535997205791</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="1">
+        <v>5532998334944</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="1">
+        <v>5532988202917</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5532988738052</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="1">
+        <v>5537999737746</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5537998151310</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5519974094209</v>
+      </c>
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="1">
+        <v>5532999522950</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="1">
+        <v>5532988091272</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="1">
+        <v>5524999765609</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5532988153709</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="1">
+        <v>5532988153709</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5532988328295</v>
+      </c>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5561999817784</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="1">
+        <v>5532998138121</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5535999513221</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B72" s="1">
+        <v>5532999597102</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5532999810081</v>
+      </c>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="1">
+        <v>5532988798494</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5532988339656</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5532991173566</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5532991786980</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5532999865221</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5522998882456</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5532988873893</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5579991916816</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5579991916696</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5532988355472</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5532991588331</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5532998412009</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5532999631457</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5522988162400</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5532988548532</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5532988850933</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5532984138640</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5532988202986</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5532988649449</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="1">
-        <v>5522999838000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="1">
-        <v>5522999718000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5532985079595</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5532988360858</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5532988877018</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5535988239109</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5521988604590</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="1">
-        <v>5521986093756</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="1">
-        <v>5535998542031</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="1">
-        <v>5532988798494</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="1">
-        <v>5532988569823</v>
-      </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="1">
-        <v>5531995471098</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="1">
-        <v>5531999052868</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="1">
-        <v>5532988001570</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="1">
-        <v>5524999927002</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="1">
-        <v>5521979352571</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="1">
-        <v>5532999100176</v>
-      </c>
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="1">
-        <v>5532991720687</v>
-      </c>
-      <c r="C38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5532988080090</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="1">
-        <v>5532988531190</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="1">
-        <v>5532999727326</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="1">
-        <v>5532988045278</v>
-      </c>
-      <c r="C42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="1">
-        <v>5535998040270</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="1">
-        <v>5532988316754</v>
-      </c>
-      <c r="C44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="1">
-        <v>5532999065439</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="1">
-        <v>5532984314655</v>
-      </c>
-      <c r="C46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="1">
-        <v>5532984344079</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="1">
-        <v>5532999194234</v>
-      </c>
-      <c r="C48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="1">
-        <v>5532998134629</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
+      <c r="B75" s="1">
+        <v>5532998190762</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="1">
+        <v>5532999861466</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/WppSender/telefones.xlsx
+++ b/WppSender/telefones.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINÍCIUS\Documents\GitHub\MeusProjetos\Wpp-Sender\WppSender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E2B1BF-9215-4886-AA1E-6F8B4D889388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F479FD-07CD-43D0-AE8F-D237A70FE4FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheets1" sheetId="4" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="5" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheets1!$A$2:$A$35</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Telefone</t>
   </si>
@@ -28,22 +32,16 @@
     <t>Nome do aluno</t>
   </si>
   <si>
-    <t xml:space="preserve">Patrícia </t>
+    <t>Ana Beatriz de Souza Araujo</t>
   </si>
   <si>
     <t>Amanda</t>
   </si>
   <si>
-    <t>Marjory w.sena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro </t>
-  </si>
-  <si>
-    <t>Gabriel Soares</t>
+    <t>Luan Lucca Alves Martin</t>
+  </si>
+  <si>
+    <t>Pedro Lessa Bicalho</t>
   </si>
   <si>
     <t>Emilly Ferreira</t>
@@ -52,193 +50,154 @@
     <t>Théo</t>
   </si>
   <si>
-    <t>Gustavo Fregulia</t>
-  </si>
-  <si>
-    <t>João Victor Borel</t>
-  </si>
-  <si>
-    <t>João Victor Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVI YUUKI </t>
+    <t>MATHEUS FERRETTI</t>
+  </si>
+  <si>
+    <t>ISABELLA FERRETTI</t>
+  </si>
+  <si>
+    <t>Rafaella Assaife</t>
+  </si>
+  <si>
+    <t>Henrique Assaife</t>
+  </si>
+  <si>
+    <t>Laura Sales Mendes</t>
+  </si>
+  <si>
+    <t>Maria Antônia Do Monte Alves</t>
+  </si>
+  <si>
+    <t>João Guilherme Afonso Nunes</t>
+  </si>
+  <si>
+    <t>ISABELA DE CASTRO MONTEIRO</t>
+  </si>
+  <si>
+    <t>Luisa Mota Cizitarese</t>
+  </si>
+  <si>
+    <t>Heitor Lauro mesquita</t>
+  </si>
+  <si>
+    <t>Kadu Batista Neves Pereira</t>
+  </si>
+  <si>
+    <t>Beatriz Rodrigues Souza</t>
+  </si>
+  <si>
+    <t>Sophia Gama</t>
+  </si>
+  <si>
+    <t>Ana Luisa de Castro Camilo</t>
+  </si>
+  <si>
+    <t>Vitor Fernandes</t>
+  </si>
+  <si>
+    <t>Mateus Flores Weiss</t>
+  </si>
+  <si>
+    <t>Livia Flores Weiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivia Haider Rezende </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lara Silva Macedo </t>
+  </si>
+  <si>
+    <t>Derick Sayer Leandro</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Venâncio Leite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabelly </t>
+  </si>
+  <si>
+    <t>Yndiara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayza Miguel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernardo Emanuel </t>
   </si>
   <si>
     <t xml:space="preserve">Pedro Henrique </t>
   </si>
   <si>
-    <t xml:space="preserve">Maria Eduarda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Sixel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dayslon Batista </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Conforte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Théo  Almeida </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernardo Alonso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Lessa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Pereira </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Luísa Pereira </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izadora Ruela </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helena de Souza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruna Silva </t>
-  </si>
-  <si>
-    <t xml:space="preserve">César Henriques </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Teixeira </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiago Branco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lauren Oliveira </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pietra Conceição </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roniery de oliveira </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lara Vitória </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lívia Vitória </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cauã Costa e </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernanda Nunes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aiyla  Antonela </t>
-  </si>
-  <si>
-    <t xml:space="preserve">João Henrique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marko Aurélio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Mayanna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISADORA ALVES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elisa de Castro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariana de Oliveira </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Luiza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">João Victor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iasmim Vitória </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WESLEY DE CARVALHO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernardo Emanuel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel de barros </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMILLE GATTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Eduarda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira Villanova </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia Rezende </t>
-  </si>
-  <si>
-    <t xml:space="preserve">joão augusto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAYSSA APARECIDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NINA ARAUJO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guilherme Dias </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juliana  Tavares </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heitor augusto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruno Arruda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yasmin Correia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorena Antonely </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas Neves </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariana Fernandes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANA BEATRIZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAURA GONÇALVES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menyjane Pereira </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzo Toledo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felipe Cortez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matheus Ferreira </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Lucas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhuan Carlos </t>
+    <t>Lira Villanova</t>
+  </si>
+  <si>
+    <t>Sophia Cristina</t>
+  </si>
+  <si>
+    <t>Isaac Marques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana Mendonça </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Júlia Bernardino </t>
+  </si>
+  <si>
+    <t>Luisa Lopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Eduarda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Heloisa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yarah Nagen </t>
+  </si>
+  <si>
+    <t>Pedro Lucas da Costa</t>
+  </si>
+  <si>
+    <t>Nicolas Lopes Moreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myllena vitória </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matheus Pena </t>
+  </si>
+  <si>
+    <t>Matheus Pena</t>
+  </si>
+  <si>
+    <t>Ana Flávia</t>
+  </si>
+  <si>
+    <t>Nome do contato</t>
+  </si>
+  <si>
+    <t>Tatiana Campos</t>
+  </si>
+  <si>
+    <t>Rosilene Maria</t>
+  </si>
+  <si>
+    <t>Fabiana Felipe do Monte Alves</t>
+  </si>
+  <si>
+    <t>Cristina Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solange Soldati </t>
+  </si>
+  <si>
+    <t>Ana Paula Soares</t>
+  </si>
+  <si>
+    <t>Juanete Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESSICA DE OLIVEIRA </t>
   </si>
 </sst>
 </file>
@@ -722,9 +681,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1080,22 +1043,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8E15D-2818-45AE-B9A2-03F5D036FADB}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5532998412009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5532984237972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5532988136999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5532988608890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5532991661002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5532988630386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5532988044155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5532988568544</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
+    <sortCondition ref="A2:A35"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1CF4F7-9C34-4B3B-BDD8-11A3BD54170F}">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -1104,658 +1162,394 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5532988078902</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5532988645043</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5532988645043</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5532988399067</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1">
-        <v>5532987086854</v>
+        <v>5524992955780</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
-        <v>5532999903950</v>
+        <v>5532988560017</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
-        <v>5531985878756</v>
+        <v>5532988410621</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5532999225567</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5532999033524</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5595981254106</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5532985110518</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5537999148404</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5532991750478</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>5535999447998</v>
+        <v>5512982708815</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>5535988354581</v>
+        <v>5512981783444</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>5524981505082</v>
+        <v>5532988831009</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>5532999775030</v>
+        <v>5524981002088</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
-        <v>5532988449644</v>
+        <v>5532991366926</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>5532988449644</v>
+        <v>5532988625109</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>5532988693121</v>
+        <v>5532988717557</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
-        <v>5532999183311</v>
+        <v>5532988685294</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>5532999160344</v>
+        <v>5532988073977</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
-        <v>5521993141322</v>
+        <v>5532991025909</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>5537999320027</v>
+        <v>5521982726980</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
-        <v>5532998183926</v>
+        <v>5532988081604</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1">
-        <v>5532991163842</v>
+        <v>5532999657119</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
-        <v>5532999750738</v>
+        <v>5532988092143</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5535988411233</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5532991085079</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5535992740457</v>
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5532987051545</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5535988411233</v>
+        <v>39</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5532988549705</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5528999568711</v>
+        <v>16</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5555981667155</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1">
-        <v>5535992740457</v>
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5532988136999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1">
-        <v>5537991686524</v>
+        <v>40</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5532988631487</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1">
-        <v>5537999459311</v>
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5532999558159</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1">
-        <v>5537991686524</v>
+        <v>41</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5532998286801</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="1">
-        <v>5537999459311</v>
+        <v>37</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5532988381209</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1">
-        <v>5532998152445</v>
+        <v>5532991085079</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1">
-        <v>5532984240818</v>
+        <v>5532988717557</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1">
-        <v>5532991461728</v>
+        <v>5532988958750</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1">
-        <v>5537999786895</v>
+        <v>5532991444539</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1">
-        <v>5532988866681</v>
+        <v>5532988685294</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1">
-        <v>5532998133249</v>
+        <v>5532988143450</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
-        <v>5537988070911</v>
+        <v>5532991836443</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1">
-        <v>5532988446107</v>
+        <v>5532988379063</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1">
-        <v>5537999736073</v>
+        <v>5532999958330</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1">
-        <v>5532984341051</v>
+        <v>5532999775030</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>5512988983470</v>
+        <v>5532991146961</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B44" s="1">
-        <v>5535984096189</v>
+        <v>5524981002088</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B45" s="1">
-        <v>5532991472661</v>
+        <v>5532991187314</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1">
-        <v>5531971459320</v>
+        <v>5532988687905</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1">
-        <v>5532985110518</v>
+        <v>5532999327850</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B48" s="1">
-        <v>5535988097527</v>
+        <v>5532991161690</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1">
-        <v>5535988645926</v>
+        <v>5532999255705</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B50" s="1">
-        <v>5532988766264</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="1">
-        <v>5512982708815</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="1">
-        <v>5512981783444</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="1">
-        <v>5532984122969</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="1">
-        <v>5532999327850</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="1">
-        <v>5532991323480</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="1">
-        <v>5532988092143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="1">
-        <v>5537999266439</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="1">
-        <v>5532999884383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="1">
-        <v>5535992774280</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="1">
-        <v>5532999922632</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="1">
-        <v>5532999056738</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="1">
-        <v>5532988572439</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="1">
-        <v>5519998501240</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="1">
-        <v>5519998501240</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="1">
-        <v>5531997841888</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="1">
-        <v>5532999194234</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="1">
-        <v>5532998134629</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="1">
-        <v>5532998409326</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="1">
-        <v>5537999937950</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="1">
-        <v>5532988077985</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="1">
-        <v>5532988601395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="1">
-        <v>5532984321878</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="1">
-        <v>5532999406596</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="1">
-        <v>5532988113507</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="1">
-        <v>5532999304558</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="1">
-        <v>5532988045929</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="1">
-        <v>5532988184752</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78" s="1">
-        <v>5532988330738</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="1">
-        <v>5532991957665</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="1">
-        <v>5532984087363</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="1">
-        <v>5532988536132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>71</v>
-      </c>
-      <c r="B82" s="1">
-        <v>5532988109818</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>72</v>
-      </c>
-      <c r="B83" s="1">
-        <v>5561996152660</v>
+        <v>5532988685294</v>
       </c>
     </row>
   </sheetData>

--- a/WppSender/telefones.xlsx
+++ b/WppSender/telefones.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINÍCIUS\Documents\GitHub\MeusProjetos\Wpp-Sender\WppSender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F479FD-07CD-43D0-AE8F-D237A70FE4FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5704010-0622-454F-98BE-4A00DA118A55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheets1" sheetId="4" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$B$325</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheets1!$A$2:$A$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -24,155 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="233">
   <si>
     <t>Telefone</t>
   </si>
   <si>
-    <t>Nome do aluno</t>
-  </si>
-  <si>
-    <t>Ana Beatriz de Souza Araujo</t>
-  </si>
-  <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Luan Lucca Alves Martin</t>
-  </si>
-  <si>
-    <t>Pedro Lessa Bicalho</t>
-  </si>
-  <si>
-    <t>Emilly Ferreira</t>
-  </si>
-  <si>
-    <t>Théo</t>
-  </si>
-  <si>
-    <t>MATHEUS FERRETTI</t>
-  </si>
-  <si>
-    <t>ISABELLA FERRETTI</t>
-  </si>
-  <si>
-    <t>Rafaella Assaife</t>
-  </si>
-  <si>
-    <t>Henrique Assaife</t>
-  </si>
-  <si>
-    <t>Laura Sales Mendes</t>
-  </si>
-  <si>
-    <t>Maria Antônia Do Monte Alves</t>
-  </si>
-  <si>
-    <t>João Guilherme Afonso Nunes</t>
-  </si>
-  <si>
-    <t>ISABELA DE CASTRO MONTEIRO</t>
-  </si>
-  <si>
-    <t>Luisa Mota Cizitarese</t>
-  </si>
-  <si>
-    <t>Heitor Lauro mesquita</t>
-  </si>
-  <si>
-    <t>Kadu Batista Neves Pereira</t>
-  </si>
-  <si>
-    <t>Beatriz Rodrigues Souza</t>
-  </si>
-  <si>
-    <t>Sophia Gama</t>
-  </si>
-  <si>
-    <t>Ana Luisa de Castro Camilo</t>
-  </si>
-  <si>
-    <t>Vitor Fernandes</t>
-  </si>
-  <si>
-    <t>Mateus Flores Weiss</t>
-  </si>
-  <si>
-    <t>Livia Flores Weiss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olivia Haider Rezende </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lara Silva Macedo </t>
-  </si>
-  <si>
-    <t>Derick Sayer Leandro</t>
-  </si>
-  <si>
-    <t>Maria Eduarda Venâncio Leite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabelly </t>
-  </si>
-  <si>
-    <t>Yndiara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayza Miguel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernardo Emanuel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Henrique </t>
-  </si>
-  <si>
-    <t>Lira Villanova</t>
-  </si>
-  <si>
-    <t>Sophia Cristina</t>
-  </si>
-  <si>
-    <t>Isaac Marques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariana Mendonça </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Júlia Bernardino </t>
-  </si>
-  <si>
-    <t>Luisa Lopes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Eduarda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Heloisa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yarah Nagen </t>
-  </si>
-  <si>
-    <t>Pedro Lucas da Costa</t>
-  </si>
-  <si>
-    <t>Nicolas Lopes Moreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myllena vitória </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matheus Pena </t>
-  </si>
-  <si>
-    <t>Matheus Pena</t>
-  </si>
-  <si>
-    <t>Ana Flávia</t>
-  </si>
-  <si>
     <t>Nome do contato</t>
   </si>
   <si>
@@ -198,6 +55,675 @@
   </si>
   <si>
     <t xml:space="preserve">JESSICA DE OLIVEIRA </t>
+  </si>
+  <si>
+    <t>nome_unico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heitor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">João </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thaís </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raquel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bianca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lívia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guilherme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viviany </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabella </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Júlia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitória </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasmim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mateus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matheus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izabely </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caroline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">César </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrella </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isadora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otávio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luiza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludmilly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roniery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rayane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humberto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thais </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larissa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIZE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gabriela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marko </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iasmim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murilo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ester </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafaela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduarda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luisa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kauã </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geovana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emanuelle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walleska </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavínia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrystian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estefanny </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabrielly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yarley </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaac </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriella </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketley </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilmara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Éder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diogo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raíssa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jéssica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Istefania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaike </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Débora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brayan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephany </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josué </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikolas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mylene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daphine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebeca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelvin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luís </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fillipe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauriny </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAISSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexsander </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geovanna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitoria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamylle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrielly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alicia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyury </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephanie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letícia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talissya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cíntia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabelle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leticia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viviane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kethelen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">luanna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tássila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadassa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavigne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laiza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emily </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sthefanny </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janaina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diêdra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriele </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darlane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dionava </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabrielli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaillane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bárbara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laíza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thayssa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samyra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nycole </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISABEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelym </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasminy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luciano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pietro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenyffer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andressa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabíola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maysa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gabriel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stella </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levi </t>
   </si>
 </sst>
 </file>
@@ -521,7 +1047,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -636,6 +1162,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -681,12 +1222,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1045,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8E15D-2818-45AE-B9A2-03F5D036FADB}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1059,15 +1608,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>5532998412009</v>
@@ -1075,7 +1624,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>5532984237972</v>
@@ -1083,7 +1632,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>5532988136999</v>
@@ -1091,7 +1640,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>5532988608890</v>
@@ -1099,7 +1648,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>5532991661002</v>
@@ -1107,7 +1656,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>5532988630386</v>
@@ -1115,7 +1664,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>5532988044155</v>
@@ -1123,7 +1672,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>5532988568544</v>
@@ -1140,419 +1689,5261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1CF4F7-9C34-4B3B-BDD8-11A3BD54170F}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:E614"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B363" sqref="B363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5532988645043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5532984531458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5532988399067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5532999835564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5532988549864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5532991111770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5532991300143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5532984058182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5532988775134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5532988279880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5532999475634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5532999529360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5532999278323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5532999871543</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5532988016630</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5532999810385</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5535992256886</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5537999966938</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5532999294496</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5532999589177</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5532984691032</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5532988150432</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5532998403716</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5537999161292</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5532988609089</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5532999986369</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5532999085688</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5532988021464</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5537999914768</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5531975389282</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5515991702760</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5532988714619</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5532999085688</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5532999520017</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5555984273914</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5532984656654</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5533999830476</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5532991760292</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5532988292899</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5532988388567</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5532988071241</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5532987101116</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5532998059005</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5532991387530</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5532991387530</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1">
+        <v>553284964135</v>
+      </c>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="1">
+        <v>553291137160</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="1">
+        <v>553288583756</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5532991300641</v>
+      </c>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5532988687905</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5532988560017</v>
+      </c>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5532984642097</v>
+      </c>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5535988019424</v>
+      </c>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5532999347178</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5532984024127</v>
+      </c>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5532998269642</v>
+      </c>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5532998269642</v>
+      </c>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5532987013115</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1">
+        <v>5535997230927</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>5537988017903</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5537998584216</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="1">
+        <v>5521971013130</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5537999737406</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5537991044290</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="1">
+        <v>5532991750478</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="1">
+        <v>5537999876886</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="1">
+        <v>5537999937518</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5537999937518</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="1">
+        <v>5537991193779</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5532988126869</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5531973020133</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="1">
+        <v>5521966743058</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="1">
+        <v>553534217753</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5537988510359</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="1">
+        <v>553235314457</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="1">
+        <v>5535984287969</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="1">
+        <v>5527999508502</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" s="1">
+        <v>5535999465542</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="1">
+        <v>5535988855118</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="1">
+        <v>5535998823230</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="1">
+        <v>5535992392401</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="1">
+        <v>5532999558159</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="1">
+        <v>5521965147802</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="1">
+        <v>5535998171077</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="1">
+        <v>5521966419837</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="1">
+        <v>5532984641832</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="1">
+        <v>5532988858408</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="1">
+        <v>5521964066047</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="1">
-        <v>5524992955780</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B88" s="1">
+        <v>5524992817234</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="1">
+        <v>5537999747908</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="1">
+        <v>5537999198907</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="1">
+        <v>5537999462234</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="1">
+        <v>5537999737406</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1">
+        <v>5537998260323</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="1">
+        <v>553232124848</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5532991753772</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5532991557218</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>139</v>
+      </c>
+      <c r="B97" s="1">
+        <v>5532988097199</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" s="1">
+        <v>5532991131618</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" s="1">
+        <v>559987115280</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="1">
+        <v>5521992868190</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>86</v>
+      </c>
+      <c r="B101" s="1">
+        <v>5521994111141</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="1">
+        <v>5532988102452</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5532999452211</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" s="1">
+        <v>5532988227028</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" s="1">
+        <v>5532988226900</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" s="1">
+        <v>5532985217171</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5532991007096</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="1">
+        <v>5521972972522</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>5532988092810</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="1">
+        <v>5532988465818</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>147</v>
+      </c>
+      <c r="B111" s="1">
+        <v>5535988759808</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="1">
+        <v>5521971388826</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="1">
+        <v>5537998710723</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" s="1">
+        <v>5532999836703</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>82</v>
+      </c>
+      <c r="B115" s="1">
+        <v>5537988513793</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" s="1">
+        <v>5521968955135</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="1">
+        <v>5531985940332</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" s="1">
+        <v>5532999731318</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="1">
+        <v>5532984912869</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="1">
+        <v>5532991409668</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" s="1">
+        <v>5532991667573</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="1">
+        <v>5537999158420</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>82</v>
+      </c>
+      <c r="B123" s="1">
+        <v>5537998710723</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>41</v>
+      </c>
+      <c r="B124" s="1">
+        <v>5531993759184</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="1">
+        <v>5532984409390</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" s="1">
+        <v>5537988186641</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>62</v>
+      </c>
+      <c r="B127" s="1">
+        <v>5537999978606</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" s="1">
+        <v>5537998440594</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>35</v>
+      </c>
+      <c r="B129" s="1">
+        <v>5532991032081</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130" s="1">
+        <v>5537999692165</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="1">
+        <v>5535997449887</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>87</v>
+      </c>
+      <c r="B132" s="1">
+        <v>5521998851187</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>156</v>
+      </c>
+      <c r="B133" s="1">
+        <v>5532999054226</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="1">
+        <v>5532984817012</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" s="1">
+        <v>5532998191411</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>29</v>
+      </c>
+      <c r="B136" s="1">
+        <v>5532998347435</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="1">
+        <v>5532999933276</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="1">
+        <v>5532988240314</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>57</v>
+      </c>
+      <c r="B139" s="1">
+        <v>5537984149285</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" s="1">
+        <v>5532984928445</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" s="1">
+        <v>5521995075553</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" s="1">
+        <v>5521967313545</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1">
-        <v>5532988560017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B143" s="1">
+        <v>5521974612043</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" s="1">
+        <v>553799840420</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" s="1">
+        <v>5532998033159</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146" s="1">
+        <v>5537999859968</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>49</v>
+      </c>
+      <c r="B147" s="1">
+        <v>5532984295857</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" s="1">
+        <v>5532984335091</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" s="1">
+        <v>5532984335091</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>92</v>
+      </c>
+      <c r="B150" s="1">
+        <v>5535997254605</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" s="1">
+        <v>5537984210415</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>52</v>
+      </c>
+      <c r="B152" s="1">
+        <v>5537999711262</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" s="1">
+        <v>5532984934480</v>
+      </c>
+      <c r="C153" s="3"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" s="1">
+        <v>5537988129556</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>52</v>
+      </c>
+      <c r="B155" s="1">
+        <v>5521966351386</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>50</v>
+      </c>
+      <c r="B156" s="1">
+        <v>5532984322005</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="1">
+        <v>5535988665159</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="1">
+        <v>5521981807168</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>42</v>
+      </c>
+      <c r="B159" s="1">
+        <v>5537999870040</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" s="1">
+        <v>5532991261548</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>32</v>
+      </c>
+      <c r="B161" s="1">
+        <v>5532998062407</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="1">
+        <v>5555969570946</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>22</v>
+      </c>
+      <c r="B163" s="1">
+        <v>5521988887356</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="1">
+        <v>5535999274212</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>28</v>
+      </c>
+      <c r="B165" s="1">
+        <v>5532988579149</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>65</v>
+      </c>
+      <c r="B166" s="1">
+        <v>5532984549220</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" s="1">
+        <v>5532984019510</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" s="1">
+        <v>5532998133506</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" s="1">
+        <v>553299996562</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" s="1">
+        <v>553299996562</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171" s="1">
+        <v>5534992230741</v>
+      </c>
+      <c r="C171" s="3"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>5521975223613</v>
+      </c>
+      <c r="C172" s="3"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>5537988212782</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" s="1">
+        <v>5537999758668</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>76</v>
+      </c>
+      <c r="B175" s="1">
+        <v>5532984228210</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>42</v>
+      </c>
+      <c r="B176" s="1">
+        <v>5537998060077</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>35</v>
+      </c>
+      <c r="B177" s="1">
+        <v>5537988087580</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>173</v>
+      </c>
+      <c r="B178" s="1">
+        <v>5535988665063</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="1">
+        <v>5532999906282</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>174</v>
+      </c>
+      <c r="B180" s="1">
+        <v>5532988518936</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>175</v>
+      </c>
+      <c r="B181" s="1">
+        <v>5532991291103</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="1">
+        <v>5535999210493</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>176</v>
+      </c>
+      <c r="B183" s="1">
+        <v>5537999351370</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>177</v>
+      </c>
+      <c r="B184" s="1">
+        <v>5537999622101</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>55</v>
+      </c>
+      <c r="B185" s="1">
+        <v>5537988034084</v>
+      </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>38</v>
+      </c>
+      <c r="B186" s="1">
+        <v>5532999045945</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>178</v>
+      </c>
+      <c r="B187" s="1">
+        <v>5535991172765</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" s="1">
+        <v>5537988158606</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>97</v>
+      </c>
+      <c r="B189" s="1">
+        <v>553287021727</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>179</v>
+      </c>
+      <c r="B190" s="1">
+        <v>5531998629536</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>178</v>
+      </c>
+      <c r="B191" s="1">
+        <v>5521985184718</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>180</v>
+      </c>
+      <c r="B192" s="1">
+        <v>5532988962623</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>181</v>
+      </c>
+      <c r="B193" s="1">
+        <v>5537999878231</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>94</v>
+      </c>
+      <c r="B194" s="1">
+        <v>5535988090925</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>41</v>
+      </c>
+      <c r="B195" s="1">
+        <v>5532998374889</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>182</v>
+      </c>
+      <c r="B196" s="1">
+        <v>5532991236361</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>183</v>
+      </c>
+      <c r="B197" s="1">
+        <v>553299675663</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>184</v>
+      </c>
+      <c r="B198" s="1">
+        <v>5521982471727</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
+        <v>185</v>
+      </c>
+      <c r="B199" s="1">
+        <v>5532984332633</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>186</v>
+      </c>
+      <c r="B200" s="1">
+        <v>5521973702587</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" s="1">
+        <v>5532988574965</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>187</v>
+      </c>
+      <c r="B202" s="1">
+        <v>5532988544611</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
+        <v>188</v>
+      </c>
+      <c r="B203" s="1">
+        <v>5532999295309</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
+        <v>87</v>
+      </c>
+      <c r="B204" s="1">
+        <v>5521985739167</v>
+      </c>
+      <c r="C204" s="3"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
+        <v>86</v>
+      </c>
+      <c r="B205" s="1">
+        <v>5537991686307</v>
+      </c>
+      <c r="C205" s="3"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
+        <v>98</v>
+      </c>
+      <c r="B206" s="1">
+        <v>5532988354273</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
+        <v>189</v>
+      </c>
+      <c r="B207" s="1">
+        <v>5521969884233</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
+        <v>190</v>
+      </c>
+      <c r="B208" s="1">
+        <v>5532991642078</v>
+      </c>
+      <c r="C208" s="3"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A209" t="s">
+        <v>72</v>
+      </c>
+      <c r="B209" s="1">
+        <v>553299932102</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A210" t="s">
+        <v>192</v>
+      </c>
+      <c r="B210" s="1">
+        <v>5521964647638</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
+        <v>193</v>
+      </c>
+      <c r="B211" s="1">
+        <v>5532988674120</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
+        <v>194</v>
+      </c>
+      <c r="B212" s="1">
+        <v>5522992141947</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="1">
+        <v>553288388567</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A214" t="s">
+        <v>195</v>
+      </c>
+      <c r="B214" s="1">
+        <v>5521986788463</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
+        <v>25</v>
+      </c>
+      <c r="B215" s="1">
+        <v>5537991328579</v>
+      </c>
+      <c r="C215" s="3"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" s="1">
+        <v>5537999882933</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A217" t="s">
+        <v>18</v>
+      </c>
+      <c r="B217" s="1">
+        <v>5514998746570</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
+        <v>92</v>
+      </c>
+      <c r="B218" s="1">
+        <v>5521968093781</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
+        <v>196</v>
+      </c>
+      <c r="B219" s="1">
+        <v>5522999110803</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A220" t="s">
+        <v>46</v>
+      </c>
+      <c r="B220" s="1">
+        <v>553999570710</v>
+      </c>
+      <c r="C220" s="3"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A221" t="s">
+        <v>21</v>
+      </c>
+      <c r="B221" s="1">
+        <v>5537999570710</v>
+      </c>
+      <c r="C221" s="3"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A222" t="s">
+        <v>32</v>
+      </c>
+      <c r="B222" s="1">
+        <v>5537998675467</v>
+      </c>
+      <c r="C222" s="3"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="3"/>
+    </row>
+    <row r="223" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A223" t="s">
+        <v>197</v>
+      </c>
+      <c r="B223" s="1">
+        <v>5537999351172</v>
+      </c>
+      <c r="C223" s="3"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
+        <v>48</v>
+      </c>
+      <c r="B224" s="1">
+        <v>5532991997316</v>
+      </c>
+      <c r="C224" s="3"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="3"/>
+    </row>
+    <row r="225" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
+        <v>93</v>
+      </c>
+      <c r="B225" s="1">
+        <v>5532991101801</v>
+      </c>
+      <c r="C225" s="3"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>62</v>
+      </c>
+      <c r="B226" s="1">
+        <v>5532988713185</v>
+      </c>
+      <c r="C226" s="3"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="3"/>
+    </row>
+    <row r="227" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A227" t="s">
+        <v>28</v>
+      </c>
+      <c r="B227" s="1">
+        <v>5532988713185</v>
+      </c>
+      <c r="C227" s="3"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
+        <v>18</v>
+      </c>
+      <c r="B228" s="1">
+        <v>5532984235655</v>
+      </c>
+      <c r="C228" s="3"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
+        <v>24</v>
+      </c>
+      <c r="B229" s="1">
+        <v>5532988180684</v>
+      </c>
+      <c r="C229" s="3"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A230" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="1">
+        <v>5537988012868</v>
+      </c>
+      <c r="C230" s="3"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="3"/>
+    </row>
+    <row r="231" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A231" t="s">
+        <v>29</v>
+      </c>
+      <c r="B231" s="1">
+        <v>5532988421314</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
+        <v>132</v>
+      </c>
+      <c r="B232" s="1">
+        <v>5532984062117</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
+        <v>198</v>
+      </c>
+      <c r="B233" s="1">
+        <v>5528999504634</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
+        <v>198</v>
+      </c>
+      <c r="B234" s="1">
+        <v>5528999504634</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="3"/>
+    </row>
+    <row r="235" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
+        <v>21</v>
+      </c>
+      <c r="B235" s="1">
+        <v>5537991144596</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A236" t="s">
+        <v>17</v>
+      </c>
+      <c r="B236" s="1">
+        <v>5535991865689</v>
+      </c>
+      <c r="C236" s="3"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
+        <v>199</v>
+      </c>
+      <c r="B237" s="1">
+        <v>5521983497858</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
+        <v>200</v>
+      </c>
+      <c r="B238" s="1">
+        <v>5521982965274</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="3"/>
+    </row>
+    <row r="239" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
+        <v>201</v>
+      </c>
+      <c r="B239" s="1">
+        <v>5532988939795</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A240" t="s">
+        <v>46</v>
+      </c>
+      <c r="B240" s="1">
+        <v>5532988196074</v>
+      </c>
+      <c r="C240" s="3"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="3"/>
+    </row>
+    <row r="241" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A241" t="s">
+        <v>202</v>
+      </c>
+      <c r="B241" s="1">
+        <v>5532988196074</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="3"/>
+    </row>
+    <row r="242" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
+        <v>65</v>
+      </c>
+      <c r="B242" s="1">
+        <v>5535998557268</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
+        <v>203</v>
+      </c>
+      <c r="B243" s="1">
+        <v>5535998228789</v>
+      </c>
+      <c r="C243" s="3"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
+        <v>27</v>
+      </c>
+      <c r="B244" s="1">
+        <v>5532991159846</v>
+      </c>
+      <c r="C244" s="3"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
+        <v>111</v>
+      </c>
+      <c r="B245" s="1">
+        <v>5532999254019</v>
+      </c>
+      <c r="C245" s="3"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
+        <v>204</v>
+      </c>
+      <c r="B246" s="1">
+        <v>553284545919</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" s="1">
+        <v>552137099659</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="3"/>
+    </row>
+    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
+        <v>16</v>
+      </c>
+      <c r="B248" s="1">
+        <v>553299079657</v>
+      </c>
+      <c r="C248" s="3"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="3"/>
+    </row>
+    <row r="249" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A249" t="s">
+        <v>200</v>
+      </c>
+      <c r="B249" s="1">
+        <v>5532999680295</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A250" t="s">
+        <v>37</v>
+      </c>
+      <c r="B250" s="1">
+        <v>5521968664002</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="3"/>
+    </row>
+    <row r="251" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251" s="1">
+        <v>5537999141641</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A252" t="s">
+        <v>25</v>
+      </c>
+      <c r="B252" s="1">
+        <v>5532988957000</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A253" t="s">
+        <v>18</v>
+      </c>
+      <c r="B253" s="1">
+        <v>5532988752518</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A254" t="s">
+        <v>205</v>
+      </c>
+      <c r="B254" s="1">
+        <v>5535997440009</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A255" t="s">
+        <v>206</v>
+      </c>
+      <c r="B255" s="1">
+        <v>5524992547797</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A256" t="s">
+        <v>17</v>
+      </c>
+      <c r="B256" s="1">
+        <v>5532988283831</v>
+      </c>
+      <c r="C256" s="3"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A257" t="s">
+        <v>30</v>
+      </c>
+      <c r="B257" s="1">
+        <v>5537999962580</v>
+      </c>
+      <c r="C257" s="3"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A258" t="s">
+        <v>26</v>
+      </c>
+      <c r="B258" s="1">
+        <v>5535988492016</v>
+      </c>
+      <c r="C258" s="3"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A259" t="s">
+        <v>97</v>
+      </c>
+      <c r="B259" s="1">
+        <v>5532998257222</v>
+      </c>
+      <c r="C259" s="3"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="3"/>
+    </row>
+    <row r="260" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A260" t="s">
+        <v>92</v>
+      </c>
+      <c r="B260" s="1">
+        <v>5521997803781</v>
+      </c>
+      <c r="C260" s="3"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A261" t="s">
+        <v>21</v>
+      </c>
+      <c r="B261" s="1">
+        <v>5535997282924</v>
+      </c>
+      <c r="C261" s="3"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A262" t="s">
+        <v>207</v>
+      </c>
+      <c r="B262" s="1">
+        <v>5532991935883</v>
+      </c>
+      <c r="C262" s="3"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="3"/>
+    </row>
+    <row r="263" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A263" t="s">
+        <v>47</v>
+      </c>
+      <c r="B263" s="1">
+        <v>5537998265514</v>
+      </c>
+      <c r="C263" s="3"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A264" t="s">
+        <v>91</v>
+      </c>
+      <c r="B264" s="1">
+        <v>5521991911263</v>
+      </c>
+      <c r="C264" s="3"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A265" t="s">
+        <v>18</v>
+      </c>
+      <c r="B265" s="1">
+        <v>5532999643658</v>
+      </c>
+      <c r="C265" s="3"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="3"/>
+    </row>
+    <row r="266" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A266" t="s">
+        <v>25</v>
+      </c>
+      <c r="B266" s="1">
+        <v>5532998343500</v>
+      </c>
+      <c r="C266" s="3"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="3"/>
+    </row>
+    <row r="267" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A267" t="s">
+        <v>208</v>
+      </c>
+      <c r="B267" s="1">
+        <v>5532988208904</v>
+      </c>
+      <c r="C267" s="3"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="3"/>
+    </row>
+    <row r="268" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A268" t="s">
+        <v>59</v>
+      </c>
+      <c r="B268" s="1">
+        <v>5537998386379</v>
+      </c>
+      <c r="C268" s="3"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="3"/>
+    </row>
+    <row r="269" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A269" t="s">
+        <v>66</v>
+      </c>
+      <c r="B269" s="1">
+        <v>553284914203</v>
+      </c>
+      <c r="C269" s="3"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="3"/>
+    </row>
+    <row r="270" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A270" t="s">
+        <v>209</v>
+      </c>
+      <c r="B270" s="1">
+        <v>5532988307823</v>
+      </c>
+      <c r="C270" s="3"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="3"/>
+    </row>
+    <row r="271" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A271" t="s">
+        <v>191</v>
+      </c>
+      <c r="B271" s="1">
+        <v>553284209416</v>
+      </c>
+      <c r="C271" s="3"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A272" t="s">
+        <v>210</v>
+      </c>
+      <c r="B272" s="1">
+        <v>5535998477693</v>
+      </c>
+      <c r="C272" s="3"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="3"/>
+    </row>
+    <row r="273" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A273" t="s">
+        <v>21</v>
+      </c>
+      <c r="B273" s="1">
+        <v>5532988104771</v>
+      </c>
+      <c r="C273" s="3"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="3"/>
+    </row>
+    <row r="274" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A274" t="s">
+        <v>21</v>
+      </c>
+      <c r="B274" s="1">
+        <v>5532987092109</v>
+      </c>
+      <c r="C274" s="3"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="3"/>
+    </row>
+    <row r="275" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A275" t="s">
+        <v>211</v>
+      </c>
+      <c r="B275" s="1">
+        <v>5532998244400</v>
+      </c>
+      <c r="C275" s="3"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A276" t="s">
+        <v>30</v>
+      </c>
+      <c r="B276" s="1">
+        <v>5532988585639</v>
+      </c>
+      <c r="C276" s="3"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="3"/>
+    </row>
+    <row r="277" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A277" t="s">
+        <v>59</v>
+      </c>
+      <c r="B277" s="1">
+        <v>5532988719931</v>
+      </c>
+      <c r="C277" s="3"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="3"/>
+    </row>
+    <row r="278" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A278" t="s">
+        <v>35</v>
+      </c>
+      <c r="B278" s="1">
+        <v>553291337864</v>
+      </c>
+      <c r="C278" s="3"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="3"/>
+    </row>
+    <row r="279" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A279" t="s">
+        <v>212</v>
+      </c>
+      <c r="B279" s="1">
+        <v>5532984295180</v>
+      </c>
+      <c r="C279" s="3"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="3"/>
+    </row>
+    <row r="280" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A280" t="s">
+        <v>213</v>
+      </c>
+      <c r="B280" s="1">
+        <v>553597388968</v>
+      </c>
+      <c r="C280" s="3"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A281" t="s">
+        <v>35</v>
+      </c>
+      <c r="B281" s="1">
+        <v>5532988063433</v>
+      </c>
+      <c r="C281" s="3"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A282" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
-        <v>5532988410621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5532999033524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5532985110518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B282" s="1">
+        <v>5521974603245</v>
+      </c>
+      <c r="C282" s="3"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A283" t="s">
+        <v>21</v>
+      </c>
+      <c r="B283" s="1">
+        <v>5537984067108</v>
+      </c>
+      <c r="C283" s="3"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="3"/>
+    </row>
+    <row r="284" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A284" t="s">
+        <v>214</v>
+      </c>
+      <c r="B284" s="1">
+        <v>5521975729748</v>
+      </c>
+      <c r="C284" s="3"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="3"/>
+    </row>
+    <row r="285" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A285" t="s">
+        <v>215</v>
+      </c>
+      <c r="B285" s="1">
+        <v>553234461543</v>
+      </c>
+      <c r="C285" s="3"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="3"/>
+    </row>
+    <row r="286" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A286" t="s">
+        <v>216</v>
+      </c>
+      <c r="B286" s="1">
+        <v>5521964852548</v>
+      </c>
+      <c r="C286" s="3"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="3"/>
+    </row>
+    <row r="287" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A287" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287" s="1">
+        <v>5537998414989</v>
+      </c>
+      <c r="C287" s="3"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="3"/>
+    </row>
+    <row r="288" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A288" t="s">
+        <v>18</v>
+      </c>
+      <c r="B288" s="1">
+        <v>5521987615278</v>
+      </c>
+      <c r="C288" s="3"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A289" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" s="1">
+        <v>5532988980322</v>
+      </c>
+      <c r="C289" s="3"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="3"/>
+    </row>
+    <row r="290" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A290" t="s">
+        <v>92</v>
+      </c>
+      <c r="B290" s="1">
+        <v>5521979423774</v>
+      </c>
+      <c r="C290" s="3"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A291" t="s">
+        <v>21</v>
+      </c>
+      <c r="B291" s="1">
+        <v>5521985446067</v>
+      </c>
+      <c r="C291" s="3"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A292" t="s">
+        <v>28</v>
+      </c>
+      <c r="B292" s="1">
+        <v>5535997194848</v>
+      </c>
+      <c r="C292" s="3"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A293" t="s">
+        <v>12</v>
+      </c>
+      <c r="B293" s="1">
+        <v>5532988200941</v>
+      </c>
+      <c r="C293" s="3"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A294" t="s">
+        <v>18</v>
+      </c>
+      <c r="B294" s="1">
+        <v>5519981491390</v>
+      </c>
+      <c r="C294" s="3"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="3"/>
+    </row>
+    <row r="295" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A295" t="s">
+        <v>178</v>
+      </c>
+      <c r="B295" s="1">
+        <v>5532998413503</v>
+      </c>
+      <c r="C295" s="3"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="3"/>
+    </row>
+    <row r="296" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A296" t="s">
+        <v>217</v>
+      </c>
+      <c r="B296" s="1">
+        <v>5532988156260</v>
+      </c>
+      <c r="C296" s="3"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="3"/>
+    </row>
+    <row r="297" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A297" t="s">
+        <v>218</v>
+      </c>
+      <c r="B297" s="1">
+        <v>5521976591943</v>
+      </c>
+      <c r="C297" s="3"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A298" t="s">
+        <v>219</v>
+      </c>
+      <c r="B298" s="1">
+        <v>5532988156260</v>
+      </c>
+      <c r="C298" s="3"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="3"/>
+    </row>
+    <row r="299" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A299" t="s">
+        <v>220</v>
+      </c>
+      <c r="B299" s="1">
+        <v>5535988162033</v>
+      </c>
+      <c r="C299" s="3"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="3"/>
+    </row>
+    <row r="300" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A300" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2">
-        <v>5532991750478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5512982708815</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5512981783444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B300" s="1">
+        <v>5532999926469</v>
+      </c>
+      <c r="C300" s="3"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="3"/>
+    </row>
+    <row r="301" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A301" t="s">
+        <v>24</v>
+      </c>
+      <c r="B301" s="1">
+        <v>5532988690215</v>
+      </c>
+      <c r="C301" s="3"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="3"/>
+    </row>
+    <row r="302" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A302" t="s">
+        <v>12</v>
+      </c>
+      <c r="B302" s="1">
+        <v>5532984821544</v>
+      </c>
+      <c r="C302" s="3"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="3"/>
+    </row>
+    <row r="303" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A303" t="s">
+        <v>221</v>
+      </c>
+      <c r="B303" s="1">
+        <v>5532991252640</v>
+      </c>
+      <c r="C303" s="3"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="3"/>
+    </row>
+    <row r="304" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A304" t="s">
+        <v>44</v>
+      </c>
+      <c r="B304" s="1">
+        <v>5532991252640</v>
+      </c>
+      <c r="C304" s="3"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="3"/>
+    </row>
+    <row r="305" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A305" t="s">
+        <v>35</v>
+      </c>
+      <c r="B305" s="1">
+        <v>5532988540393</v>
+      </c>
+      <c r="C305" s="3"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="3"/>
+    </row>
+    <row r="306" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A306" t="s">
+        <v>21</v>
+      </c>
+      <c r="B306" s="1">
+        <v>5532999071801</v>
+      </c>
+      <c r="C306" s="3"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="3"/>
+    </row>
+    <row r="307" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A307" t="s">
+        <v>95</v>
+      </c>
+      <c r="B307" s="1">
+        <v>5532991037342</v>
+      </c>
+      <c r="C307" s="3"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="3"/>
+    </row>
+    <row r="308" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A308" t="s">
+        <v>222</v>
+      </c>
+      <c r="B308" s="1">
+        <v>5527999102905</v>
+      </c>
+      <c r="C308" s="3"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="3"/>
+    </row>
+    <row r="309" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A309" t="s">
+        <v>222</v>
+      </c>
+      <c r="B309" s="1">
+        <v>5527999102905</v>
+      </c>
+      <c r="C309" s="3"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="3"/>
+    </row>
+    <row r="310" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A310" t="s">
+        <v>223</v>
+      </c>
+      <c r="B310" s="1">
+        <v>5511943113521</v>
+      </c>
+      <c r="C310" s="3"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="3"/>
+    </row>
+    <row r="311" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A311" t="s">
+        <v>224</v>
+      </c>
+      <c r="B311" s="1">
+        <v>5521973715267</v>
+      </c>
+      <c r="C311" s="3"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="3"/>
+    </row>
+    <row r="312" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A312" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312" s="1">
+        <v>5535997534060</v>
+      </c>
+      <c r="C312" s="3"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="3"/>
+    </row>
+    <row r="313" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A313" t="s">
+        <v>225</v>
+      </c>
+      <c r="B313" s="1">
+        <v>5521994653204</v>
+      </c>
+      <c r="C313" s="3"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="3"/>
+    </row>
+    <row r="314" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A314" t="s">
+        <v>226</v>
+      </c>
+      <c r="B314" s="1">
+        <v>5521980971299</v>
+      </c>
+      <c r="C314" s="3"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="3"/>
+    </row>
+    <row r="315" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A315" t="s">
+        <v>227</v>
+      </c>
+      <c r="B315" s="1">
+        <v>5532999771065</v>
+      </c>
+      <c r="C315" s="3"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="3"/>
+    </row>
+    <row r="316" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A316" t="s">
+        <v>228</v>
+      </c>
+      <c r="B316" s="1">
+        <v>5532988219783</v>
+      </c>
+      <c r="C316" s="3"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="3"/>
+    </row>
+    <row r="317" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A317" t="s">
+        <v>39</v>
+      </c>
+      <c r="B317" s="1">
+        <v>5532988899862</v>
+      </c>
+      <c r="C317" s="3"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="3"/>
+    </row>
+    <row r="318" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A318" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" s="1">
+        <v>5535997249006</v>
+      </c>
+      <c r="C318" s="3"/>
+      <c r="D318" s="5"/>
+      <c r="E318" s="3"/>
+    </row>
+    <row r="319" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A319" t="s">
+        <v>14</v>
+      </c>
+      <c r="B319" s="1">
+        <v>5532999212161</v>
+      </c>
+      <c r="C319" s="3"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="3"/>
+    </row>
+    <row r="320" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A320" t="s">
+        <v>229</v>
+      </c>
+      <c r="B320" s="1">
+        <v>5532984110089</v>
+      </c>
+      <c r="C320" s="3"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="3"/>
+    </row>
+    <row r="321" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A321" t="s">
+        <v>230</v>
+      </c>
+      <c r="B321" s="1">
+        <v>5555987843621</v>
+      </c>
+      <c r="C321" s="3"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="3"/>
+    </row>
+    <row r="322" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A322" t="s">
+        <v>214</v>
+      </c>
+      <c r="B322" s="1">
+        <v>5521993637181</v>
+      </c>
+      <c r="C322" s="3"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="3"/>
+    </row>
+    <row r="323" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A323" t="s">
+        <v>231</v>
+      </c>
+      <c r="B323" s="1">
+        <v>5532998419890</v>
+      </c>
+      <c r="C323" s="3"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="3"/>
+    </row>
+    <row r="324" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A324" t="s">
+        <v>29</v>
+      </c>
+      <c r="B324" s="1">
+        <v>5537999372159</v>
+      </c>
+      <c r="C324" s="3"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="3"/>
+    </row>
+    <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A325" t="s">
+        <v>232</v>
+      </c>
+      <c r="B325" s="1">
+        <v>5532999296773</v>
+      </c>
+      <c r="C325" s="3"/>
+      <c r="D325" s="5"/>
+      <c r="E325" s="3"/>
+    </row>
+    <row r="326" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A326" t="s">
+        <v>49</v>
+      </c>
+      <c r="B326" s="1">
+        <v>5532988353008</v>
+      </c>
+      <c r="C326" s="3"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="3"/>
+    </row>
+    <row r="327" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A327" t="s">
+        <v>28</v>
+      </c>
+      <c r="B327" s="1">
+        <v>5533988054593</v>
+      </c>
+      <c r="C327" s="3"/>
+      <c r="D327" s="5"/>
+      <c r="E327" s="3"/>
+    </row>
+    <row r="328" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A328" t="s">
+        <v>43</v>
+      </c>
+      <c r="B328" s="1">
+        <v>5532987051545</v>
+      </c>
+      <c r="C328" s="3"/>
+      <c r="D328" s="5"/>
+      <c r="E328" s="3"/>
+    </row>
+    <row r="329" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A329" t="s">
+        <v>18</v>
+      </c>
+      <c r="B329" s="1">
+        <v>5532991195969</v>
+      </c>
+      <c r="C329" s="3"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="3"/>
+    </row>
+    <row r="330" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A330" t="s">
+        <v>27</v>
+      </c>
+      <c r="B330" s="1">
+        <v>5532991193610</v>
+      </c>
+      <c r="C330" s="3"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="3"/>
+    </row>
+    <row r="331" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A331" t="s">
+        <v>50</v>
+      </c>
+      <c r="B331" s="1">
+        <v>5532988958750</v>
+      </c>
+      <c r="C331" s="3"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="3"/>
+    </row>
+    <row r="332" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A332" t="s">
+        <v>39</v>
+      </c>
+      <c r="B332" s="1">
+        <v>5532991132314</v>
+      </c>
+      <c r="C332" s="3"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="3"/>
+    </row>
+    <row r="333" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A333" t="s">
+        <v>29</v>
+      </c>
+      <c r="B333" s="1">
+        <v>5532999715012</v>
+      </c>
+      <c r="C333" s="3"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="3"/>
+    </row>
+    <row r="334" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A334" t="s">
+        <v>51</v>
+      </c>
+      <c r="B334" s="1">
+        <v>5532988591732</v>
+      </c>
+      <c r="C334" s="3"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="3"/>
+    </row>
+    <row r="335" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A335" t="s">
+        <v>52</v>
+      </c>
+      <c r="B335" s="1">
+        <v>5532988922113</v>
+      </c>
+      <c r="C335" s="3"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="3"/>
+    </row>
+    <row r="336" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A336" t="s">
+        <v>53</v>
+      </c>
+      <c r="B336" s="1">
+        <v>5532987061582</v>
+      </c>
+      <c r="C336" s="3"/>
+      <c r="D336" s="5"/>
+      <c r="E336" s="3"/>
+    </row>
+    <row r="337" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A337" t="s">
+        <v>15</v>
+      </c>
+      <c r="B337" s="1">
+        <v>5532998318777</v>
+      </c>
+      <c r="C337" s="3"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="3"/>
+    </row>
+    <row r="338" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A338" t="s">
+        <v>54</v>
+      </c>
+      <c r="B338" s="1">
+        <v>5532988332763</v>
+      </c>
+      <c r="C338" s="3"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="3"/>
+    </row>
+    <row r="339" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A339" t="s">
+        <v>18</v>
+      </c>
+      <c r="B339" s="1">
+        <v>5532991551162</v>
+      </c>
+      <c r="C339" s="3"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="3"/>
+    </row>
+    <row r="340" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A340" t="s">
+        <v>55</v>
+      </c>
+      <c r="B340" s="1">
+        <v>5532991300641</v>
+      </c>
+      <c r="C340" s="3"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="3"/>
+    </row>
+    <row r="341" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A341" t="s">
+        <v>56</v>
+      </c>
+      <c r="B341" s="1">
+        <v>5537999320027</v>
+      </c>
+      <c r="C341" s="3"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="3"/>
+    </row>
+    <row r="342" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A342" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1">
-        <v>5532988831009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5524981002088</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5532991366926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5532988625109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5532988717557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5532988685294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5532988073977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5532991025909</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5521982726980</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="1">
-        <v>5532988081604</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B342" s="1">
+        <v>5524981191054</v>
+      </c>
+      <c r="C342" s="3"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="3"/>
+    </row>
+    <row r="343" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A343" t="s">
+        <v>22</v>
+      </c>
+      <c r="B343" s="1">
+        <v>5532988476780</v>
+      </c>
+      <c r="C343" s="3"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="3"/>
+    </row>
+    <row r="344" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A344" t="s">
+        <v>57</v>
+      </c>
+      <c r="B344" s="1">
+        <v>5532988497682</v>
+      </c>
+      <c r="C344" s="3"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="3"/>
+    </row>
+    <row r="345" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A345" t="s">
+        <v>16</v>
+      </c>
+      <c r="B345" s="1">
+        <v>5532988581549</v>
+      </c>
+      <c r="C345" s="3"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="3"/>
+    </row>
+    <row r="346" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A346" t="s">
+        <v>58</v>
+      </c>
+      <c r="B346" s="1">
+        <v>5532991036890</v>
+      </c>
+      <c r="C346" s="3"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="3"/>
+    </row>
+    <row r="347" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A347" t="s">
+        <v>59</v>
+      </c>
+      <c r="B347" s="1">
+        <v>5535999939660</v>
+      </c>
+      <c r="C347" s="3"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="3"/>
+    </row>
+    <row r="348" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A348" t="s">
+        <v>60</v>
+      </c>
+      <c r="B348" s="1">
+        <v>5535988239109</v>
+      </c>
+      <c r="C348" s="3"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="3"/>
+    </row>
+    <row r="349" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A349" t="s">
+        <v>61</v>
+      </c>
+      <c r="B349" s="1">
+        <v>5532999522950</v>
+      </c>
+      <c r="C349" s="3"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="3"/>
+    </row>
+    <row r="350" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A350" t="s">
+        <v>63</v>
+      </c>
+      <c r="B350" s="1">
+        <v>5532984483594</v>
+      </c>
+      <c r="C350" s="3"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="3"/>
+    </row>
+    <row r="351" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A351" t="s">
+        <v>64</v>
+      </c>
+      <c r="B351" s="1">
+        <v>5532999088872</v>
+      </c>
+      <c r="C351" s="3"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="3"/>
+    </row>
+    <row r="352" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A352" t="s">
+        <v>65</v>
+      </c>
+      <c r="B352" s="1">
+        <v>5532988661270</v>
+      </c>
+      <c r="C352" s="3"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="3"/>
+    </row>
+    <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A353" t="s">
+        <v>66</v>
+      </c>
+      <c r="B353" s="1">
+        <v>5535998542031</v>
+      </c>
+      <c r="C353" s="3"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="3"/>
+    </row>
+    <row r="354" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A354" t="s">
+        <v>67</v>
+      </c>
+      <c r="B354" s="1">
+        <v>5528999568711</v>
+      </c>
+      <c r="C354" s="3"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="3"/>
+    </row>
+    <row r="355" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A355" t="s">
+        <v>68</v>
+      </c>
+      <c r="B355" s="1">
+        <v>5532999810081</v>
+      </c>
+      <c r="C355" s="3"/>
+      <c r="D355" s="5"/>
+      <c r="E355" s="3"/>
+    </row>
+    <row r="356" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A356" t="s">
+        <v>16</v>
+      </c>
+      <c r="B356" s="1">
+        <v>5532984261929</v>
+      </c>
+      <c r="C356" s="3"/>
+      <c r="D356" s="5"/>
+      <c r="E356" s="3"/>
+    </row>
+    <row r="357" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A357" t="s">
+        <v>69</v>
+      </c>
+      <c r="B357" s="1">
+        <v>5532998298360</v>
+      </c>
+      <c r="C357" s="3"/>
+      <c r="D357" s="5"/>
+      <c r="E357" s="3"/>
+    </row>
+    <row r="358" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A358" t="s">
+        <v>70</v>
+      </c>
+      <c r="B358" s="1">
+        <v>5532998193635</v>
+      </c>
+      <c r="C358" s="3"/>
+      <c r="D358" s="5"/>
+      <c r="E358" s="3"/>
+    </row>
+    <row r="359" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A359" t="s">
+        <v>27</v>
+      </c>
+      <c r="B359" s="1">
+        <v>5532988412333</v>
+      </c>
+      <c r="C359" s="3"/>
+      <c r="D359" s="5"/>
+      <c r="E359" s="3"/>
+    </row>
+    <row r="360" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A360" t="s">
+        <v>71</v>
+      </c>
+      <c r="B360" s="1">
+        <v>5532998005069</v>
+      </c>
+      <c r="C360" s="3"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="3"/>
+    </row>
+    <row r="361" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A361" t="s">
+        <v>72</v>
+      </c>
+      <c r="B361" s="1">
+        <v>5532998384624</v>
+      </c>
+      <c r="C361" s="3"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="3"/>
+    </row>
+    <row r="362" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A362" t="s">
+        <v>73</v>
+      </c>
+      <c r="B362" s="1">
+        <v>5532991315525</v>
+      </c>
+      <c r="C362" s="3"/>
+      <c r="D362" s="5"/>
+      <c r="E362" s="3"/>
+    </row>
+    <row r="363" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A363" t="s">
+        <v>74</v>
+      </c>
+      <c r="B363" s="1">
+        <v>5532999110076</v>
+      </c>
+      <c r="C363" s="3"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="3"/>
+    </row>
+    <row r="364" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A364" t="s">
+        <v>75</v>
+      </c>
+      <c r="B364" s="1">
+        <v>5532988866681</v>
+      </c>
+      <c r="C364" s="3"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="3"/>
+    </row>
+    <row r="365" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A365" t="s">
+        <v>28</v>
+      </c>
+      <c r="B365" s="1">
+        <v>5532998133249</v>
+      </c>
+      <c r="C365" s="3"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="3"/>
+    </row>
+    <row r="366" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A366" t="s">
+        <v>76</v>
+      </c>
+      <c r="B366" s="1">
+        <v>5532984876557</v>
+      </c>
+      <c r="C366" s="3"/>
+      <c r="D366" s="5"/>
+      <c r="E366" s="3"/>
+    </row>
+    <row r="367" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A367" t="s">
+        <v>72</v>
+      </c>
+      <c r="B367" s="1">
+        <v>5535999950161</v>
+      </c>
+      <c r="C367" s="3"/>
+      <c r="D367" s="5"/>
+      <c r="E367" s="3"/>
+    </row>
+    <row r="368" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A368" t="s">
+        <v>77</v>
+      </c>
+      <c r="B368" s="1">
+        <v>5532991157665</v>
+      </c>
+      <c r="C368" s="3"/>
+      <c r="D368" s="5"/>
+      <c r="E368" s="3"/>
+    </row>
+    <row r="369" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A369" t="s">
+        <v>78</v>
+      </c>
+      <c r="B369" s="1">
+        <v>5532999450695</v>
+      </c>
+      <c r="C369" s="3"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="3"/>
+    </row>
+    <row r="370" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A370" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="1">
-        <v>5532999657119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5532988092143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2">
-        <v>5532991085079</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5532987051545</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="2">
-        <v>5532988549705</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="2">
-        <v>5555981667155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="2">
-        <v>5532988136999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B370" s="1">
+        <v>553232146064</v>
+      </c>
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
+    </row>
+    <row r="371" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A371" t="s">
+        <v>30</v>
+      </c>
+      <c r="B371" s="1">
+        <v>5521964066047</v>
+      </c>
+      <c r="C371" s="3"/>
+      <c r="D371" s="5"/>
+      <c r="E371" s="3"/>
+    </row>
+    <row r="372" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A372" t="s">
+        <v>79</v>
+      </c>
+      <c r="B372" s="1">
+        <v>5532999693431</v>
+      </c>
+      <c r="C372" s="3"/>
+      <c r="D372" s="5"/>
+      <c r="E372" s="3"/>
+    </row>
+    <row r="373" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A373" t="s">
+        <v>80</v>
+      </c>
+      <c r="B373" s="1">
+        <v>5519974094209</v>
+      </c>
+      <c r="C373" s="3"/>
+      <c r="D373" s="5"/>
+      <c r="E373" s="3"/>
+    </row>
+    <row r="374" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A374" t="s">
+        <v>22</v>
+      </c>
+      <c r="B374" s="1">
+        <v>5532984125614</v>
+      </c>
+      <c r="C374" s="3"/>
+      <c r="D374" s="5"/>
+      <c r="E374" s="3"/>
+    </row>
+    <row r="375" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A375" t="s">
+        <v>81</v>
+      </c>
+      <c r="B375" s="1">
+        <v>5532991472661</v>
+      </c>
+      <c r="C375" s="3"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="3"/>
+    </row>
+    <row r="376" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A376" t="s">
+        <v>35</v>
+      </c>
+      <c r="B376" s="1">
+        <v>5532998282971</v>
+      </c>
+      <c r="C376" s="3"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="3"/>
+    </row>
+    <row r="377" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A377" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="2">
-        <v>5532988631487</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>5532999558159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="2">
-        <v>5532998286801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2">
-        <v>5532988381209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="1">
-        <v>5532991085079</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="1">
-        <v>5532988717557</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="1">
-        <v>5532988958750</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="1">
-        <v>5532991444539</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="1">
-        <v>5532988685294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1">
-        <v>5532988143450</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5532991836443</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="1">
-        <v>5532988379063</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="1">
-        <v>5532999958330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1">
-        <v>5532999775030</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="1">
-        <v>5532991146961</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="1">
-        <v>5524981002088</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="1">
-        <v>5532991187314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="1">
-        <v>5532988687905</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1">
-        <v>5532999327850</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="1">
-        <v>5532991161690</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="1">
-        <v>5532999255705</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="1">
-        <v>5532988685294</v>
-      </c>
+      <c r="B377" s="1">
+        <v>553232343584</v>
+      </c>
+      <c r="C377" s="3"/>
+      <c r="D377" s="5"/>
+      <c r="E377" s="3"/>
+    </row>
+    <row r="378" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A378" t="s">
+        <v>82</v>
+      </c>
+      <c r="B378" s="1">
+        <v>5532988488945</v>
+      </c>
+      <c r="C378" s="3"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="3"/>
+    </row>
+    <row r="379" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A379" t="s">
+        <v>50</v>
+      </c>
+      <c r="B379" s="1">
+        <v>5532988193812</v>
+      </c>
+      <c r="C379" s="3"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="3"/>
+    </row>
+    <row r="380" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A380" t="s">
+        <v>83</v>
+      </c>
+      <c r="B380" s="1">
+        <v>5532984544013</v>
+      </c>
+      <c r="C380" s="3"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="3"/>
+    </row>
+    <row r="381" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A381" t="s">
+        <v>84</v>
+      </c>
+      <c r="B381" s="1">
+        <v>5532999218786</v>
+      </c>
+      <c r="C381" s="3"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="3"/>
+    </row>
+    <row r="382" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C382" s="3"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="3"/>
+    </row>
+    <row r="383" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C383" s="3"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="3"/>
+    </row>
+    <row r="384" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C384" s="3"/>
+      <c r="D384" s="5"/>
+      <c r="E384" s="3"/>
+    </row>
+    <row r="385" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C385" s="3"/>
+      <c r="D385" s="5"/>
+      <c r="E385" s="3"/>
+    </row>
+    <row r="386" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C386" s="3"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="3"/>
+    </row>
+    <row r="387" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C387" s="3"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="3"/>
+    </row>
+    <row r="388" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C388" s="3"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="3"/>
+    </row>
+    <row r="389" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C389" s="3"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="3"/>
+    </row>
+    <row r="390" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C390" s="3"/>
+      <c r="D390" s="5"/>
+      <c r="E390" s="3"/>
+    </row>
+    <row r="391" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C391" s="3"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="3"/>
+    </row>
+    <row r="392" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C392" s="3"/>
+      <c r="D392" s="5"/>
+      <c r="E392" s="3"/>
+    </row>
+    <row r="393" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C393" s="3"/>
+      <c r="D393" s="5"/>
+      <c r="E393" s="3"/>
+    </row>
+    <row r="394" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C394" s="3"/>
+      <c r="D394" s="5"/>
+      <c r="E394" s="3"/>
+    </row>
+    <row r="395" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C395" s="3"/>
+      <c r="D395" s="5"/>
+      <c r="E395" s="3"/>
+    </row>
+    <row r="396" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C396" s="3"/>
+      <c r="D396" s="5"/>
+      <c r="E396" s="3"/>
+    </row>
+    <row r="397" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C397" s="3"/>
+      <c r="D397" s="5"/>
+      <c r="E397" s="3"/>
+    </row>
+    <row r="398" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C398" s="3"/>
+      <c r="D398" s="5"/>
+      <c r="E398" s="3"/>
+    </row>
+    <row r="399" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C399" s="3"/>
+      <c r="D399" s="5"/>
+      <c r="E399" s="3"/>
+    </row>
+    <row r="400" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C400" s="3"/>
+      <c r="D400" s="5"/>
+      <c r="E400" s="3"/>
+    </row>
+    <row r="401" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C401" s="3"/>
+      <c r="D401" s="5"/>
+      <c r="E401" s="3"/>
+    </row>
+    <row r="402" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C402" s="3"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="3"/>
+    </row>
+    <row r="403" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C403" s="3"/>
+      <c r="D403" s="5"/>
+      <c r="E403" s="3"/>
+    </row>
+    <row r="404" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C404" s="3"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="3"/>
+    </row>
+    <row r="405" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C405" s="3"/>
+      <c r="D405" s="5"/>
+      <c r="E405" s="3"/>
+    </row>
+    <row r="406" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C406" s="3"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="3"/>
+    </row>
+    <row r="407" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C407" s="3"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="3"/>
+    </row>
+    <row r="408" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C408" s="3"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="3"/>
+    </row>
+    <row r="409" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C409" s="3"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="3"/>
+    </row>
+    <row r="410" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C410" s="3"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="3"/>
+    </row>
+    <row r="411" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C411" s="3"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="3"/>
+    </row>
+    <row r="412" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C412" s="3"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="3"/>
+    </row>
+    <row r="413" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C413" s="3"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="3"/>
+    </row>
+    <row r="414" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C414" s="3"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="3"/>
+    </row>
+    <row r="415" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C415" s="3"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="3"/>
+    </row>
+    <row r="416" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C416" s="3"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="3"/>
+    </row>
+    <row r="417" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C417" s="3"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="3"/>
+    </row>
+    <row r="418" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C418" s="3"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="3"/>
+    </row>
+    <row r="419" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C419" s="3"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="3"/>
+    </row>
+    <row r="420" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C420" s="3"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="3"/>
+    </row>
+    <row r="421" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C421" s="3"/>
+      <c r="D421" s="5"/>
+      <c r="E421" s="3"/>
+    </row>
+    <row r="422" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C422" s="3"/>
+      <c r="D422" s="5"/>
+      <c r="E422" s="3"/>
+    </row>
+    <row r="423" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C423" s="3"/>
+      <c r="D423" s="5"/>
+      <c r="E423" s="3"/>
+    </row>
+    <row r="424" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C424" s="3"/>
+      <c r="D424" s="5"/>
+      <c r="E424" s="3"/>
+    </row>
+    <row r="425" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C425" s="3"/>
+      <c r="D425" s="5"/>
+      <c r="E425" s="3"/>
+    </row>
+    <row r="426" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C426" s="3"/>
+      <c r="D426" s="5"/>
+      <c r="E426" s="3"/>
+    </row>
+    <row r="427" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C427" s="3"/>
+      <c r="D427" s="5"/>
+      <c r="E427" s="3"/>
+    </row>
+    <row r="428" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C428" s="3"/>
+      <c r="D428" s="5"/>
+      <c r="E428" s="3"/>
+    </row>
+    <row r="429" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C429" s="3"/>
+      <c r="D429" s="5"/>
+      <c r="E429" s="3"/>
+    </row>
+    <row r="430" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C430" s="3"/>
+      <c r="D430" s="5"/>
+      <c r="E430" s="3"/>
+    </row>
+    <row r="431" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C431" s="3"/>
+      <c r="D431" s="5"/>
+      <c r="E431" s="3"/>
+    </row>
+    <row r="432" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C432" s="3"/>
+      <c r="D432" s="5"/>
+      <c r="E432" s="3"/>
+    </row>
+    <row r="433" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C433" s="3"/>
+      <c r="D433" s="5"/>
+      <c r="E433" s="3"/>
+    </row>
+    <row r="434" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C434" s="3"/>
+      <c r="D434" s="5"/>
+      <c r="E434" s="3"/>
+    </row>
+    <row r="435" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C435" s="3"/>
+      <c r="D435" s="5"/>
+      <c r="E435" s="3"/>
+    </row>
+    <row r="436" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C436" s="3"/>
+      <c r="D436" s="5"/>
+      <c r="E436" s="3"/>
+    </row>
+    <row r="437" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C437" s="3"/>
+      <c r="D437" s="5"/>
+      <c r="E437" s="3"/>
+    </row>
+    <row r="438" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C438" s="3"/>
+      <c r="D438" s="5"/>
+      <c r="E438" s="3"/>
+    </row>
+    <row r="439" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C439" s="3"/>
+      <c r="D439" s="5"/>
+      <c r="E439" s="3"/>
+    </row>
+    <row r="440" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C440" s="3"/>
+      <c r="D440" s="5"/>
+      <c r="E440" s="3"/>
+    </row>
+    <row r="441" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C441" s="3"/>
+      <c r="D441" s="5"/>
+      <c r="E441" s="3"/>
+    </row>
+    <row r="442" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C442" s="3"/>
+      <c r="D442" s="5"/>
+      <c r="E442" s="3"/>
+    </row>
+    <row r="443" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C443" s="3"/>
+      <c r="D443" s="5"/>
+      <c r="E443" s="3"/>
+    </row>
+    <row r="444" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C444" s="3"/>
+      <c r="D444" s="5"/>
+      <c r="E444" s="3"/>
+    </row>
+    <row r="445" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C445" s="3"/>
+      <c r="D445" s="5"/>
+      <c r="E445" s="3"/>
+    </row>
+    <row r="446" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C446" s="3"/>
+      <c r="D446" s="5"/>
+      <c r="E446" s="3"/>
+    </row>
+    <row r="447" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C447" s="3"/>
+      <c r="D447" s="5"/>
+      <c r="E447" s="3"/>
+    </row>
+    <row r="448" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C448" s="3"/>
+      <c r="D448" s="5"/>
+      <c r="E448" s="3"/>
+    </row>
+    <row r="449" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C449" s="3"/>
+      <c r="D449" s="5"/>
+      <c r="E449" s="3"/>
+    </row>
+    <row r="450" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C450" s="3"/>
+      <c r="D450" s="5"/>
+      <c r="E450" s="3"/>
+    </row>
+    <row r="451" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C451" s="3"/>
+      <c r="D451" s="5"/>
+      <c r="E451" s="3"/>
+    </row>
+    <row r="452" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C452" s="3"/>
+      <c r="D452" s="5"/>
+      <c r="E452" s="3"/>
+    </row>
+    <row r="453" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C453" s="3"/>
+      <c r="D453" s="5"/>
+      <c r="E453" s="3"/>
+    </row>
+    <row r="454" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C454" s="3"/>
+      <c r="D454" s="5"/>
+      <c r="E454" s="3"/>
+    </row>
+    <row r="455" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C455" s="3"/>
+      <c r="D455" s="5"/>
+      <c r="E455" s="3"/>
+    </row>
+    <row r="456" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C456" s="3"/>
+      <c r="D456" s="5"/>
+      <c r="E456" s="3"/>
+    </row>
+    <row r="457" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C457" s="3"/>
+      <c r="D457" s="5"/>
+      <c r="E457" s="3"/>
+    </row>
+    <row r="458" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C458" s="3"/>
+      <c r="D458" s="5"/>
+      <c r="E458" s="3"/>
+    </row>
+    <row r="459" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C459" s="3"/>
+      <c r="D459" s="5"/>
+      <c r="E459" s="3"/>
+    </row>
+    <row r="460" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C460" s="3"/>
+      <c r="D460" s="5"/>
+      <c r="E460" s="3"/>
+    </row>
+    <row r="461" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C461" s="3"/>
+      <c r="D461" s="5"/>
+      <c r="E461" s="3"/>
+    </row>
+    <row r="462" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C462" s="3"/>
+      <c r="D462" s="5"/>
+      <c r="E462" s="3"/>
+    </row>
+    <row r="463" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C463" s="3"/>
+      <c r="D463" s="5"/>
+      <c r="E463" s="3"/>
+    </row>
+    <row r="464" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C464" s="3"/>
+      <c r="D464" s="5"/>
+      <c r="E464" s="3"/>
+    </row>
+    <row r="465" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C465" s="3"/>
+      <c r="D465" s="5"/>
+      <c r="E465" s="3"/>
+    </row>
+    <row r="466" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C466" s="3"/>
+      <c r="D466" s="5"/>
+      <c r="E466" s="3"/>
+    </row>
+    <row r="467" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C467" s="3"/>
+      <c r="D467" s="5"/>
+      <c r="E467" s="3"/>
+    </row>
+    <row r="468" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C468" s="3"/>
+      <c r="D468" s="5"/>
+      <c r="E468" s="3"/>
+    </row>
+    <row r="469" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C469" s="3"/>
+      <c r="D469" s="5"/>
+      <c r="E469" s="3"/>
+    </row>
+    <row r="470" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C470" s="3"/>
+      <c r="D470" s="5"/>
+      <c r="E470" s="3"/>
+    </row>
+    <row r="471" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C471" s="3"/>
+      <c r="D471" s="5"/>
+      <c r="E471" s="3"/>
+    </row>
+    <row r="472" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C472" s="3"/>
+      <c r="D472" s="5"/>
+      <c r="E472" s="3"/>
+    </row>
+    <row r="473" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C473" s="3"/>
+      <c r="D473" s="5"/>
+      <c r="E473" s="3"/>
+    </row>
+    <row r="474" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C474" s="3"/>
+      <c r="D474" s="5"/>
+      <c r="E474" s="3"/>
+    </row>
+    <row r="475" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C475" s="3"/>
+      <c r="D475" s="5"/>
+      <c r="E475" s="3"/>
+    </row>
+    <row r="476" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C476" s="3"/>
+      <c r="D476" s="5"/>
+      <c r="E476" s="3"/>
+    </row>
+    <row r="477" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C477" s="3"/>
+      <c r="D477" s="5"/>
+      <c r="E477" s="3"/>
+    </row>
+    <row r="478" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C478" s="3"/>
+      <c r="D478" s="5"/>
+      <c r="E478" s="3"/>
+    </row>
+    <row r="479" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C479" s="3"/>
+      <c r="D479" s="5"/>
+      <c r="E479" s="3"/>
+    </row>
+    <row r="480" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C480" s="3"/>
+      <c r="D480" s="5"/>
+      <c r="E480" s="3"/>
+    </row>
+    <row r="481" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C481" s="3"/>
+      <c r="D481" s="5"/>
+      <c r="E481" s="3"/>
+    </row>
+    <row r="482" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C482" s="3"/>
+      <c r="D482" s="5"/>
+      <c r="E482" s="3"/>
+    </row>
+    <row r="483" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C483" s="3"/>
+      <c r="D483" s="5"/>
+      <c r="E483" s="3"/>
+    </row>
+    <row r="484" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C484" s="3"/>
+      <c r="D484" s="5"/>
+      <c r="E484" s="3"/>
+    </row>
+    <row r="485" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C485" s="3"/>
+      <c r="D485" s="5"/>
+      <c r="E485" s="3"/>
+    </row>
+    <row r="486" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C486" s="3"/>
+      <c r="D486" s="5"/>
+      <c r="E486" s="3"/>
+    </row>
+    <row r="487" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C487" s="3"/>
+      <c r="D487" s="5"/>
+      <c r="E487" s="3"/>
+    </row>
+    <row r="488" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C488" s="3"/>
+      <c r="D488" s="5"/>
+      <c r="E488" s="3"/>
+    </row>
+    <row r="489" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C489" s="3"/>
+      <c r="D489" s="5"/>
+      <c r="E489" s="3"/>
+    </row>
+    <row r="490" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C490" s="3"/>
+      <c r="D490" s="5"/>
+      <c r="E490" s="3"/>
+    </row>
+    <row r="491" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C491" s="3"/>
+      <c r="D491" s="5"/>
+      <c r="E491" s="3"/>
+    </row>
+    <row r="492" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C492" s="3"/>
+      <c r="D492" s="5"/>
+      <c r="E492" s="3"/>
+    </row>
+    <row r="493" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C493" s="3"/>
+      <c r="D493" s="5"/>
+      <c r="E493" s="3"/>
+    </row>
+    <row r="494" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C494" s="3"/>
+      <c r="D494" s="5"/>
+      <c r="E494" s="3"/>
+    </row>
+    <row r="495" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C495" s="3"/>
+      <c r="D495" s="5"/>
+      <c r="E495" s="3"/>
+    </row>
+    <row r="496" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C496" s="3"/>
+      <c r="D496" s="5"/>
+      <c r="E496" s="3"/>
+    </row>
+    <row r="497" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C497" s="3"/>
+      <c r="D497" s="5"/>
+      <c r="E497" s="3"/>
+    </row>
+    <row r="498" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C498" s="3"/>
+      <c r="D498" s="5"/>
+      <c r="E498" s="3"/>
+    </row>
+    <row r="499" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C499" s="3"/>
+      <c r="D499" s="5"/>
+      <c r="E499" s="3"/>
+    </row>
+    <row r="500" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C500" s="3"/>
+      <c r="D500" s="5"/>
+      <c r="E500" s="3"/>
+    </row>
+    <row r="501" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C501" s="3"/>
+      <c r="D501" s="5"/>
+      <c r="E501" s="3"/>
+    </row>
+    <row r="502" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C502" s="3"/>
+      <c r="D502" s="5"/>
+      <c r="E502" s="3"/>
+    </row>
+    <row r="503" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C503" s="3"/>
+      <c r="D503" s="5"/>
+      <c r="E503" s="3"/>
+    </row>
+    <row r="504" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C504" s="3"/>
+      <c r="D504" s="5"/>
+      <c r="E504" s="3"/>
+    </row>
+    <row r="505" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C505" s="3"/>
+      <c r="D505" s="5"/>
+      <c r="E505" s="3"/>
+    </row>
+    <row r="506" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C506" s="3"/>
+      <c r="D506" s="5"/>
+      <c r="E506" s="3"/>
+    </row>
+    <row r="507" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C507" s="3"/>
+      <c r="D507" s="5"/>
+      <c r="E507" s="3"/>
+    </row>
+    <row r="508" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C508" s="3"/>
+      <c r="D508" s="5"/>
+      <c r="E508" s="3"/>
+    </row>
+    <row r="509" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C509" s="3"/>
+      <c r="D509" s="5"/>
+      <c r="E509" s="3"/>
+    </row>
+    <row r="510" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C510" s="3"/>
+      <c r="D510" s="5"/>
+      <c r="E510" s="3"/>
+    </row>
+    <row r="511" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C511" s="3"/>
+      <c r="D511" s="5"/>
+      <c r="E511" s="3"/>
+    </row>
+    <row r="512" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C512" s="3"/>
+      <c r="D512" s="5"/>
+      <c r="E512" s="3"/>
+    </row>
+    <row r="513" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C513" s="3"/>
+      <c r="D513" s="5"/>
+      <c r="E513" s="3"/>
+    </row>
+    <row r="514" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C514" s="3"/>
+      <c r="D514" s="5"/>
+      <c r="E514" s="3"/>
+    </row>
+    <row r="515" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C515" s="3"/>
+      <c r="D515" s="5"/>
+      <c r="E515" s="3"/>
+    </row>
+    <row r="516" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C516" s="3"/>
+      <c r="D516" s="5"/>
+      <c r="E516" s="3"/>
+    </row>
+    <row r="517" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C517" s="3"/>
+      <c r="D517" s="5"/>
+      <c r="E517" s="3"/>
+    </row>
+    <row r="518" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C518" s="3"/>
+      <c r="D518" s="5"/>
+      <c r="E518" s="3"/>
+    </row>
+    <row r="519" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C519" s="3"/>
+      <c r="D519" s="5"/>
+      <c r="E519" s="3"/>
+    </row>
+    <row r="520" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C520" s="3"/>
+      <c r="D520" s="5"/>
+      <c r="E520" s="3"/>
+    </row>
+    <row r="521" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C521" s="3"/>
+      <c r="D521" s="5"/>
+      <c r="E521" s="3"/>
+    </row>
+    <row r="522" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C522" s="3"/>
+      <c r="D522" s="5"/>
+      <c r="E522" s="3"/>
+    </row>
+    <row r="523" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C523" s="3"/>
+      <c r="D523" s="5"/>
+      <c r="E523" s="3"/>
+    </row>
+    <row r="524" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C524" s="3"/>
+      <c r="D524" s="5"/>
+      <c r="E524" s="3"/>
+    </row>
+    <row r="525" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C525" s="3"/>
+      <c r="D525" s="5"/>
+      <c r="E525" s="3"/>
+    </row>
+    <row r="526" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C526" s="3"/>
+      <c r="D526" s="5"/>
+      <c r="E526" s="3"/>
+    </row>
+    <row r="527" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C527" s="3"/>
+      <c r="D527" s="5"/>
+      <c r="E527" s="3"/>
+    </row>
+    <row r="528" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C528" s="3"/>
+      <c r="D528" s="5"/>
+      <c r="E528" s="3"/>
+    </row>
+    <row r="529" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C529" s="3"/>
+      <c r="D529" s="5"/>
+      <c r="E529" s="3"/>
+    </row>
+    <row r="530" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C530" s="3"/>
+      <c r="D530" s="5"/>
+      <c r="E530" s="3"/>
+    </row>
+    <row r="531" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C531" s="3"/>
+      <c r="D531" s="5"/>
+      <c r="E531" s="3"/>
+    </row>
+    <row r="532" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C532" s="3"/>
+      <c r="D532" s="5"/>
+      <c r="E532" s="3"/>
+    </row>
+    <row r="533" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C533" s="3"/>
+      <c r="D533" s="5"/>
+      <c r="E533" s="3"/>
+    </row>
+    <row r="534" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C534" s="3"/>
+      <c r="D534" s="5"/>
+      <c r="E534" s="3"/>
+    </row>
+    <row r="535" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C535" s="3"/>
+      <c r="D535" s="5"/>
+      <c r="E535" s="3"/>
+    </row>
+    <row r="536" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C536" s="3"/>
+      <c r="D536" s="5"/>
+      <c r="E536" s="3"/>
+    </row>
+    <row r="537" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C537" s="3"/>
+      <c r="D537" s="5"/>
+      <c r="E537" s="3"/>
+    </row>
+    <row r="538" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C538" s="3"/>
+      <c r="D538" s="5"/>
+      <c r="E538" s="3"/>
+    </row>
+    <row r="539" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C539" s="3"/>
+      <c r="D539" s="5"/>
+      <c r="E539" s="3"/>
+    </row>
+    <row r="540" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C540" s="3"/>
+      <c r="D540" s="5"/>
+      <c r="E540" s="3"/>
+    </row>
+    <row r="541" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C541" s="3"/>
+      <c r="D541" s="5"/>
+      <c r="E541" s="3"/>
+    </row>
+    <row r="542" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C542" s="3"/>
+      <c r="D542" s="5"/>
+      <c r="E542" s="3"/>
+    </row>
+    <row r="543" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C543" s="3"/>
+      <c r="D543" s="5"/>
+      <c r="E543" s="3"/>
+    </row>
+    <row r="544" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C544" s="3"/>
+      <c r="D544" s="5"/>
+      <c r="E544" s="3"/>
+    </row>
+    <row r="545" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C545" s="3"/>
+      <c r="D545" s="5"/>
+      <c r="E545" s="3"/>
+    </row>
+    <row r="546" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C546" s="3"/>
+      <c r="D546" s="5"/>
+      <c r="E546" s="3"/>
+    </row>
+    <row r="547" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C547" s="3"/>
+      <c r="D547" s="5"/>
+      <c r="E547" s="3"/>
+    </row>
+    <row r="548" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C548" s="3"/>
+      <c r="D548" s="5"/>
+      <c r="E548" s="3"/>
+    </row>
+    <row r="549" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C549" s="3"/>
+      <c r="D549" s="5"/>
+      <c r="E549" s="3"/>
+    </row>
+    <row r="550" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C550" s="3"/>
+      <c r="D550" s="5"/>
+      <c r="E550" s="3"/>
+    </row>
+    <row r="551" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C551" s="3"/>
+      <c r="D551" s="5"/>
+      <c r="E551" s="3"/>
+    </row>
+    <row r="552" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C552" s="3"/>
+      <c r="D552" s="5"/>
+      <c r="E552" s="3"/>
+    </row>
+    <row r="553" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C553" s="3"/>
+      <c r="D553" s="5"/>
+      <c r="E553" s="3"/>
+    </row>
+    <row r="554" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C554" s="3"/>
+      <c r="D554" s="5"/>
+      <c r="E554" s="3"/>
+    </row>
+    <row r="555" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C555" s="3"/>
+      <c r="D555" s="5"/>
+      <c r="E555" s="3"/>
+    </row>
+    <row r="556" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C556" s="3"/>
+      <c r="D556" s="5"/>
+      <c r="E556" s="3"/>
+    </row>
+    <row r="557" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C557" s="3"/>
+      <c r="D557" s="5"/>
+      <c r="E557" s="3"/>
+    </row>
+    <row r="558" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C558" s="3"/>
+      <c r="D558" s="5"/>
+      <c r="E558" s="3"/>
+    </row>
+    <row r="559" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C559" s="3"/>
+      <c r="D559" s="5"/>
+      <c r="E559" s="3"/>
+    </row>
+    <row r="560" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C560" s="3"/>
+      <c r="D560" s="5"/>
+      <c r="E560" s="3"/>
+    </row>
+    <row r="561" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C561" s="3"/>
+      <c r="D561" s="5"/>
+      <c r="E561" s="3"/>
+    </row>
+    <row r="562" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C562" s="3"/>
+      <c r="D562" s="5"/>
+      <c r="E562" s="3"/>
+    </row>
+    <row r="563" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C563" s="3"/>
+      <c r="D563" s="5"/>
+      <c r="E563" s="3"/>
+    </row>
+    <row r="564" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C564" s="3"/>
+      <c r="D564" s="5"/>
+      <c r="E564" s="3"/>
+    </row>
+    <row r="565" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C565" s="3"/>
+      <c r="D565" s="5"/>
+      <c r="E565" s="3"/>
+    </row>
+    <row r="566" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C566" s="3"/>
+      <c r="D566" s="5"/>
+      <c r="E566" s="3"/>
+    </row>
+    <row r="567" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C567" s="3"/>
+      <c r="D567" s="5"/>
+      <c r="E567" s="3"/>
+    </row>
+    <row r="568" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C568" s="3"/>
+      <c r="D568" s="5"/>
+      <c r="E568" s="3"/>
+    </row>
+    <row r="569" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C569" s="3"/>
+      <c r="D569" s="5"/>
+      <c r="E569" s="3"/>
+    </row>
+    <row r="570" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C570" s="3"/>
+      <c r="D570" s="5"/>
+      <c r="E570" s="3"/>
+    </row>
+    <row r="571" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C571" s="3"/>
+      <c r="D571" s="5"/>
+      <c r="E571" s="3"/>
+    </row>
+    <row r="572" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C572" s="3"/>
+      <c r="D572" s="5"/>
+      <c r="E572" s="3"/>
+    </row>
+    <row r="573" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C573" s="3"/>
+      <c r="D573" s="5"/>
+      <c r="E573" s="3"/>
+    </row>
+    <row r="574" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C574" s="3"/>
+      <c r="D574" s="5"/>
+      <c r="E574" s="3"/>
+    </row>
+    <row r="575" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C575" s="3"/>
+      <c r="D575" s="5"/>
+      <c r="E575" s="3"/>
+    </row>
+    <row r="576" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C576" s="3"/>
+      <c r="D576" s="5"/>
+      <c r="E576" s="3"/>
+    </row>
+    <row r="577" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C577" s="3"/>
+      <c r="D577" s="5"/>
+      <c r="E577" s="3"/>
+    </row>
+    <row r="578" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C578" s="3"/>
+      <c r="D578" s="5"/>
+      <c r="E578" s="3"/>
+    </row>
+    <row r="579" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C579" s="3"/>
+      <c r="D579" s="5"/>
+      <c r="E579" s="3"/>
+    </row>
+    <row r="580" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C580" s="3"/>
+      <c r="D580" s="5"/>
+      <c r="E580" s="3"/>
+    </row>
+    <row r="581" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C581" s="3"/>
+      <c r="D581" s="5"/>
+      <c r="E581" s="3"/>
+    </row>
+    <row r="582" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C582" s="3"/>
+      <c r="D582" s="5"/>
+      <c r="E582" s="3"/>
+    </row>
+    <row r="583" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C583" s="3"/>
+      <c r="D583" s="5"/>
+      <c r="E583" s="3"/>
+    </row>
+    <row r="584" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C584" s="3"/>
+      <c r="D584" s="5"/>
+      <c r="E584" s="3"/>
+    </row>
+    <row r="585" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C585" s="3"/>
+      <c r="D585" s="5"/>
+      <c r="E585" s="3"/>
+    </row>
+    <row r="586" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C586" s="3"/>
+      <c r="D586" s="5"/>
+      <c r="E586" s="3"/>
+    </row>
+    <row r="587" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C587" s="3"/>
+      <c r="D587" s="5"/>
+      <c r="E587" s="3"/>
+    </row>
+    <row r="588" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C588" s="3"/>
+      <c r="D588" s="5"/>
+      <c r="E588" s="3"/>
+    </row>
+    <row r="589" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C589" s="3"/>
+      <c r="D589" s="5"/>
+      <c r="E589" s="3"/>
+    </row>
+    <row r="590" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C590" s="3"/>
+      <c r="D590" s="5"/>
+      <c r="E590" s="3"/>
+    </row>
+    <row r="591" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C591" s="3"/>
+      <c r="D591" s="5"/>
+      <c r="E591" s="3"/>
+    </row>
+    <row r="592" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C592" s="3"/>
+      <c r="D592" s="5"/>
+      <c r="E592" s="3"/>
+    </row>
+    <row r="593" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C593" s="3"/>
+      <c r="D593" s="5"/>
+      <c r="E593" s="3"/>
+    </row>
+    <row r="594" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C594" s="3"/>
+      <c r="D594" s="5"/>
+      <c r="E594" s="3"/>
+    </row>
+    <row r="595" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C595" s="3"/>
+      <c r="D595" s="5"/>
+      <c r="E595" s="3"/>
+    </row>
+    <row r="596" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C596" s="3"/>
+      <c r="D596" s="5"/>
+      <c r="E596" s="3"/>
+    </row>
+    <row r="597" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C597" s="3"/>
+      <c r="D597" s="5"/>
+      <c r="E597" s="3"/>
+    </row>
+    <row r="598" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C598" s="3"/>
+      <c r="D598" s="5"/>
+      <c r="E598" s="3"/>
+    </row>
+    <row r="599" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C599" s="3"/>
+      <c r="D599" s="5"/>
+      <c r="E599" s="3"/>
+    </row>
+    <row r="600" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C600" s="3"/>
+      <c r="D600" s="5"/>
+      <c r="E600" s="3"/>
+    </row>
+    <row r="601" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C601" s="3"/>
+      <c r="D601" s="5"/>
+      <c r="E601" s="3"/>
+    </row>
+    <row r="602" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C602" s="3"/>
+      <c r="D602" s="5"/>
+      <c r="E602" s="3"/>
+    </row>
+    <row r="603" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C603" s="3"/>
+      <c r="D603" s="5"/>
+      <c r="E603" s="3"/>
+    </row>
+    <row r="604" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C604" s="3"/>
+      <c r="D604" s="5"/>
+      <c r="E604" s="3"/>
+    </row>
+    <row r="605" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C605" s="3"/>
+      <c r="D605" s="5"/>
+      <c r="E605" s="3"/>
+    </row>
+    <row r="606" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C606" s="3"/>
+      <c r="D606" s="5"/>
+      <c r="E606" s="3"/>
+    </row>
+    <row r="607" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C607" s="3"/>
+      <c r="D607" s="5"/>
+      <c r="E607" s="3"/>
+    </row>
+    <row r="608" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C608" s="3"/>
+      <c r="D608" s="5"/>
+      <c r="E608" s="3"/>
+    </row>
+    <row r="609" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C609" s="3"/>
+      <c r="D609" s="5"/>
+      <c r="E609" s="3"/>
+    </row>
+    <row r="610" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C610" s="3"/>
+      <c r="D610" s="5"/>
+      <c r="E610" s="3"/>
+    </row>
+    <row r="611" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C611" s="3"/>
+      <c r="D611" s="5"/>
+      <c r="E611" s="3"/>
+    </row>
+    <row r="612" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C612" s="3"/>
+      <c r="D612" s="5"/>
+      <c r="E612" s="3"/>
+    </row>
+    <row r="613" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C613" s="3"/>
+      <c r="D613" s="5"/>
+      <c r="E613" s="3"/>
+    </row>
+    <row r="614" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C614" s="3"/>
+      <c r="D614" s="5"/>
+      <c r="E614" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>